--- a/Tester Results/TEST_REC_ORDER_DIRECTION.xlsx
+++ b/Tester Results/TEST_REC_ORDER_DIRECTION.xlsx
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.1103667704338501</v>
+        <v>61.32777777777778</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1339176776573617</v>
+        <v>67.20555555555556</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-0.02355090722351158</v>
+        <v>-5.87777777777778</v>
       </c>
     </row>
     <row r="3">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.106122048635404</v>
+        <v>15.67975</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1549213713547135</v>
+        <v>18.26519444444445</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-0.04879932271930945</v>
+        <v>-2.585444444444446</v>
       </c>
     </row>
     <row r="4">
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6647480833177108</v>
+        <v>153.7516388888889</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7355046629178442</v>
+        <v>162.8410555555556</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-0.07075657960013337</v>
+        <v>-9.089416666666665</v>
       </c>
     </row>
     <row r="5">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.1104913508707598</v>
+        <v>6127.447361111112</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1867523170436793</v>
+        <v>7508.073027777777</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-0.07626096617291953</v>
+        <v>-1380.625666666665</v>
       </c>
     </row>
     <row r="6">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.3953913890315004</v>
+        <v>102.475462962963</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4865081630259732</v>
+        <v>114.0638888888889</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>-0.09111677399447277</v>
+        <v>-11.5884259259259</v>
       </c>
     </row>
     <row r="10">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.4469015664429973</v>
+        <v>28.48948611111111</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5814478403575285</v>
+        <v>32.93819444444444</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-0.1345462739145312</v>
+        <v>-4.448708333333332</v>
       </c>
     </row>
     <row r="11">
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.6293395673744776</v>
+        <v>150.8274537037037</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8168571103177787</v>
+        <v>176.8305740740741</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-0.1875175429433011</v>
+        <v>-26.00312037037034</v>
       </c>
     </row>
     <row r="12">
@@ -797,10 +797,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.5102510545922563</v>
+        <v>11873.96275462963</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7014566058463755</v>
+        <v>14621.79834259259</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-0.1912055512541192</v>
+        <v>-2747.835587962965</v>
       </c>
     </row>
     <row r="13">
@@ -921,10 +921,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.3350908843593083</v>
+        <v>93.24490740740741</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3686397395301778</v>
+        <v>99.12037037037038</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-0.03354885517086942</v>
+        <v>-5.87546296296297</v>
       </c>
     </row>
     <row r="17">
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.342352850717332</v>
+        <v>24.5097037037037</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4068049602914841</v>
+        <v>26.91130555555556</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-0.06445210957415204</v>
+        <v>-2.401601851851854</v>
       </c>
     </row>
     <row r="18">
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.6365765814743293</v>
+        <v>160.2035925925926</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5952474287329261</v>
+        <v>145.1042222222222</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.04132915274140314</v>
+        <v>15.09937037037039</v>
       </c>
     </row>
     <row r="19">
@@ -1014,10 +1014,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.3528131382738208</v>
+        <v>9635.487814814815</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4428642331006198</v>
+        <v>10822.44786111111</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-0.09005109482679896</v>
+        <v>-1186.960046296297</v>
       </c>
     </row>
     <row r="20">
@@ -1138,10 +1138,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.6190121219627208</v>
+        <v>133.5893518518519</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4221973362234547</v>
+        <v>105.9212962962963</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.1968147857392661</v>
+        <v>27.66805555555555</v>
       </c>
     </row>
     <row r="24">
@@ -1169,10 +1169,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.6561486208612686</v>
+        <v>36.13469444444444</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3931429544313251</v>
+        <v>26.42299074074074</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.2630056664299435</v>
+        <v>9.711703703703702</v>
       </c>
     </row>
     <row r="25">
@@ -1200,10 +1200,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.5723889912441856</v>
+        <v>144.3176712962963</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3372739332771332</v>
+        <v>116.863537037037</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.2351150579670525</v>
+        <v>27.45413425925926</v>
       </c>
     </row>
     <row r="26">
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.6620000833778729</v>
+        <v>13976.09596759259</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3186995279964958</v>
+        <v>9238.73998148148</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.3433005553813771</v>
+        <v>4737.355986111112</v>
       </c>
     </row>
     <row r="27">
@@ -1355,10 +1355,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.9561074770556623</v>
+        <v>234.2064814814815</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3690427341280728</v>
+        <v>99.17129629629629</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.5870647429275896</v>
+        <v>135.0351851851852</v>
       </c>
     </row>
     <row r="31">
@@ -1386,10 +1386,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.9328810888432043</v>
+        <v>59.10475</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3074902942327321</v>
+        <v>23.67728703703704</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.6253907946104722</v>
+        <v>35.42746296296296</v>
       </c>
     </row>
     <row r="32">
@@ -1417,18 +1417,18 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.3795704255205647</v>
+        <v>116.7894490740741</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3426683141279553</v>
+        <v>117.0621759259259</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.03690211139260946</v>
+        <v>-0.2727268518518429</v>
       </c>
     </row>
     <row r="33">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.8764885220007117</v>
+        <v>21756.63385648148</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2864608167574658</v>
+        <v>8837.139092592592</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.5900277052432459</v>
+        <v>12919.49476388889</v>
       </c>
     </row>
     <row r="34">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.7649787025459979</v>
+        <v>162.313888888889</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7264157417693142</v>
+        <v>151.0166666666667</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.03856296077668364</v>
+        <v>11.29722222222227</v>
       </c>
     </row>
     <row r="38">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.7525009091280569</v>
+        <v>42.22015277777778</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5060275431511464</v>
+        <v>30.12684259259259</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.2464733659769105</v>
+        <v>12.0933101851852</v>
       </c>
     </row>
     <row r="39">
@@ -1634,10 +1634,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.4465233402232514</v>
+        <v>129.5212314814815</v>
       </c>
       <c r="E39" t="n">
-        <v>0.03579576217411366</v>
+        <v>60.95931481481481</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.4107275780491377</v>
+        <v>68.56191666666666</v>
       </c>
     </row>
     <row r="40">
@@ -1665,10 +1665,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.7173764589198934</v>
+        <v>16045.21368981482</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3215749644851888</v>
+        <v>9303.403685185185</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.3958014944347046</v>
+        <v>6741.810004629631</v>
       </c>
     </row>
     <row r="41">

--- a/Tester Results/TEST_REC_ORDER_DIRECTION.xlsx
+++ b/Tester Results/TEST_REC_ORDER_DIRECTION.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,22 +483,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>61.32777777777778</v>
+        <v>11.71944444444444</v>
       </c>
       <c r="E2" t="n">
-        <v>67.20555555555556</v>
+        <v>11.27777777777778</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-5.87777777777778</v>
+        <v>0.4416666666666647</v>
       </c>
     </row>
     <row r="3">
@@ -514,14 +514,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15.67975</v>
+        <v>30.05833333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>18.26519444444445</v>
+        <v>30.65555555555556</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-2.585444444444446</v>
+        <v>-0.5972222222222285</v>
       </c>
     </row>
     <row r="4">
@@ -545,14 +545,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>153.7516388888889</v>
+        <v>18.33888888888889</v>
       </c>
       <c r="E4" t="n">
-        <v>162.8410555555556</v>
+        <v>19.37777777777778</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-9.089416666666665</v>
+        <v>-1.038888888888888</v>
       </c>
     </row>
     <row r="5">
@@ -576,14 +576,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6127.447361111112</v>
+        <v>61.32777777777778</v>
       </c>
       <c r="E5" t="n">
-        <v>7508.073027777777</v>
+        <v>67.20555555555556</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-1380.625666666665</v>
+        <v>-5.87777777777778</v>
       </c>
     </row>
     <row r="6">
@@ -607,22 +607,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11.71944444444444</v>
+        <v>61.66654166666667</v>
       </c>
       <c r="E6" t="n">
-        <v>11.27777777777778</v>
+        <v>67.55897222222222</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.4416666666666647</v>
+        <v>-5.892430555555556</v>
       </c>
     </row>
     <row r="7">
@@ -638,14 +638,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>30.05833333333333</v>
+        <v>55.79138888888888</v>
       </c>
       <c r="E7" t="n">
-        <v>30.65555555555556</v>
+        <v>59.03819444444444</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-0.5972222222222285</v>
+        <v>-3.246805555555561</v>
       </c>
     </row>
     <row r="8">
@@ -669,14 +669,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>18.33888888888889</v>
+        <v>23.81411111111111</v>
       </c>
       <c r="E8" t="n">
-        <v>19.37777777777778</v>
+        <v>27.45466666666666</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-1.038888888888888</v>
+        <v>-3.640555555555551</v>
       </c>
     </row>
     <row r="9">
@@ -695,19 +695,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>102.475462962963</v>
+        <v>153.7516388888889</v>
       </c>
       <c r="E9" t="n">
-        <v>114.0638888888889</v>
+        <v>162.8410555555556</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>-11.5884259259259</v>
+        <v>-9.089416666666665</v>
       </c>
     </row>
     <row r="10">
@@ -726,19 +726,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>28.48948611111111</v>
+        <v>6127.447361111112</v>
       </c>
       <c r="E10" t="n">
-        <v>32.93819444444444</v>
+        <v>7508.073027777777</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-4.448708333333332</v>
+        <v>-1380.625666666665</v>
       </c>
     </row>
     <row r="11">
@@ -757,27 +757,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>150.8274537037037</v>
+        <v>10.435</v>
       </c>
       <c r="E11" t="n">
-        <v>176.8305740740741</v>
+        <v>6.538235294117648</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-26.00312037037034</v>
+        <v>3.896764705882351</v>
       </c>
     </row>
     <row r="12">
@@ -788,19 +788,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>IPI</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11873.96275462963</v>
+        <v>20.58823529411765</v>
       </c>
       <c r="E12" t="n">
-        <v>14621.79834259259</v>
+        <v>20.58823529411765</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-2747.835587962965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -912,7 +912,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -921,10 +921,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>93.24490740740741</v>
+        <v>102.475462962963</v>
       </c>
       <c r="E16" t="n">
-        <v>99.12037037037038</v>
+        <v>114.0638888888889</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-5.87546296296297</v>
+        <v>-11.5884259259259</v>
       </c>
     </row>
     <row r="17">
@@ -943,19 +943,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>24.5097037037037</v>
+        <v>102.1431574074074</v>
       </c>
       <c r="E17" t="n">
-        <v>26.91130555555556</v>
+        <v>114.2151944444444</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-2.401601851851854</v>
+        <v>-12.07203703703703</v>
       </c>
     </row>
     <row r="18">
@@ -974,27 +974,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>160.2035925925926</v>
+        <v>92.38379629629632</v>
       </c>
       <c r="E18" t="n">
-        <v>145.1042222222222</v>
+        <v>100.4224537037037</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>15.09937037037039</v>
+        <v>-8.038657407407385</v>
       </c>
     </row>
     <row r="19">
@@ -1005,19 +1005,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>9635.487814814815</v>
+        <v>42.57611111111111</v>
       </c>
       <c r="E19" t="n">
-        <v>10822.44786111111</v>
+        <v>48.37812962962963</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-1186.960046296297</v>
+        <v>-5.802018518518516</v>
       </c>
     </row>
     <row r="20">
@@ -1036,27 +1036,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10.92592592592593</v>
+        <v>150.8274537037037</v>
       </c>
       <c r="E20" t="n">
-        <v>10.32407407407407</v>
+        <v>176.8305740740741</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.601851851851853</v>
+        <v>-26.00312037037034</v>
       </c>
     </row>
     <row r="21">
@@ -1067,19 +1067,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>31.36296296296297</v>
+        <v>11873.96275462963</v>
       </c>
       <c r="E21" t="n">
-        <v>31.63518518518518</v>
+        <v>14621.79834259259</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>-0.272222222222215</v>
+        <v>-2747.835587962965</v>
       </c>
     </row>
     <row r="22">
@@ -1098,81 +1098,81 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>20.43703703703704</v>
+        <v>10.435</v>
       </c>
       <c r="E22" t="n">
-        <v>21.31111111111111</v>
+        <v>6.538235294117648</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>-0.8740740740740733</v>
+        <v>3.896764705882351</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>IPI</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>133.5893518518519</v>
+        <v>20.58823529411765</v>
       </c>
       <c r="E23" t="n">
-        <v>105.9212962962963</v>
+        <v>20.58823529411765</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>27.66805555555555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>36.13469444444444</v>
+        <v>10.92592592592593</v>
       </c>
       <c r="E24" t="n">
-        <v>26.42299074074074</v>
+        <v>10.32407407407407</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1180,216 +1180,216 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>9.711703703703702</v>
+        <v>0.601851851851853</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>144.3176712962963</v>
+        <v>30.8962962962963</v>
       </c>
       <c r="E25" t="n">
-        <v>116.863537037037</v>
+        <v>31.63518518518518</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>27.45413425925926</v>
+        <v>-0.7388888888888872</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>13976.09596759259</v>
+        <v>19.97037037037037</v>
       </c>
       <c r="E26" t="n">
-        <v>9238.73998148148</v>
+        <v>21.31111111111111</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4737.355986111112</v>
+        <v>-1.340740740740742</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>10.60555555555556</v>
+        <v>93.23935185185184</v>
       </c>
       <c r="E27" t="n">
-        <v>10.36666666666667</v>
+        <v>99.12037037037038</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.2388888888888889</v>
+        <v>-5.881018518518545</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>31.11296296296296</v>
+        <v>93.27347685185185</v>
       </c>
       <c r="E28" t="n">
-        <v>30.74814814814815</v>
+        <v>99.34892592592593</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.3648148148148103</v>
+        <v>-6.075449074074072</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>20.50740740740741</v>
+        <v>84.70534259259259</v>
       </c>
       <c r="E29" t="n">
-        <v>20.38148148148148</v>
+        <v>88.98518518518517</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.1259259259259267</v>
+        <v>-4.279842592592587</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>234.2064814814815</v>
+        <v>36.98715740740741</v>
       </c>
       <c r="E30" t="n">
-        <v>99.17129629629629</v>
+        <v>40.64285185185185</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>135.0351851851852</v>
+        <v>-3.655694444444443</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>59.10475</v>
+        <v>162.8949814814815</v>
       </c>
       <c r="E31" t="n">
-        <v>23.67728703703704</v>
+        <v>145.1042222222222</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1397,30 +1397,30 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>35.42746296296296</v>
+        <v>17.79075925925926</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>116.7894490740741</v>
+        <v>9641.93787037037</v>
       </c>
       <c r="E32" t="n">
-        <v>117.0621759259259</v>
+        <v>10822.44786111111</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1428,30 +1428,30 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>-0.2727268518518429</v>
+        <v>-1180.509990740742</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>21756.63385648148</v>
+        <v>10.435</v>
       </c>
       <c r="E33" t="n">
-        <v>8837.139092592592</v>
+        <v>6.538235294117648</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1459,30 +1459,30 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>12919.49476388889</v>
+        <v>3.896764705882351</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>IPI</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>10.01111111111111</v>
+        <v>20.58823529411765</v>
       </c>
       <c r="E34" t="n">
-        <v>11.23148148148148</v>
+        <v>20.58823529411765</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>-1.22037037037037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>31.95</v>
+        <v>10.60555555555556</v>
       </c>
       <c r="E35" t="n">
-        <v>26.13703703703704</v>
+        <v>10.36666666666667</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5.812962962962967</v>
+        <v>0.2388888888888889</v>
       </c>
     </row>
     <row r="36">
@@ -1532,19 +1532,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>21.93888888888889</v>
+        <v>31.11296296296296</v>
       </c>
       <c r="E36" t="n">
-        <v>14.90555555555555</v>
+        <v>30.74814814814815</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>7.033333333333337</v>
+        <v>0.3648148148148103</v>
       </c>
     </row>
     <row r="37">
@@ -1563,19 +1563,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>162.313888888889</v>
+        <v>20.50740740740741</v>
       </c>
       <c r="E37" t="n">
-        <v>151.0166666666667</v>
+        <v>20.38148148148148</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>11.29722222222227</v>
+        <v>0.1259259259259267</v>
       </c>
     </row>
     <row r="38">
@@ -1594,19 +1594,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>42.22015277777778</v>
+        <v>133.5893518518519</v>
       </c>
       <c r="E38" t="n">
-        <v>30.12684259259259</v>
+        <v>105.9212962962963</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>12.0933101851852</v>
+        <v>27.66805555555555</v>
       </c>
     </row>
     <row r="39">
@@ -1625,19 +1625,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>129.5212314814815</v>
+        <v>132.6956898148148</v>
       </c>
       <c r="E39" t="n">
-        <v>60.95931481481481</v>
+        <v>106.0883518518519</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>68.56191666666666</v>
+        <v>26.60733796296294</v>
       </c>
     </row>
     <row r="40">
@@ -1656,19 +1656,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>16045.21368981482</v>
+        <v>119.6044166666667</v>
       </c>
       <c r="E40" t="n">
-        <v>9303.403685185185</v>
+        <v>97.25192592592593</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>6741.810004629631</v>
+        <v>22.35249074074073</v>
       </c>
     </row>
     <row r="41">
@@ -1687,19 +1687,19 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>10.46018518518519</v>
+        <v>54.8997314814815</v>
       </c>
       <c r="E41" t="n">
-        <v>10</v>
+        <v>40.78643518518518</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.4601851851851855</v>
+        <v>14.11329629629631</v>
       </c>
     </row>
     <row r="42">
@@ -1718,19 +1718,19 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>30.29074074074075</v>
+        <v>144.3176712962963</v>
       </c>
       <c r="E42" t="n">
-        <v>28.92592592592592</v>
+        <v>116.863537037037</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.364814814814824</v>
+        <v>27.45413425925926</v>
       </c>
     </row>
     <row r="43">
@@ -1749,27 +1749,771 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>April16</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>13976.09596759259</v>
+      </c>
+      <c r="E43" t="n">
+        <v>9238.73998148148</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>early &gt; late</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>4737.355986111112</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>April16</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>8.935</v>
+      </c>
+      <c r="E44" t="n">
+        <v>9.131764705882354</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>late &gt; early</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>-0.1967647058823534</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>April16</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>IPI</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20.58823529411765</v>
+      </c>
+      <c r="E45" t="n">
+        <v>20.58823529411765</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>late &gt; early</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>reactionTime</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>10.01111111111111</v>
+      </c>
+      <c r="E46" t="n">
+        <v>11.23148148148148</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>late &gt; early</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>-1.22037037037037</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>peakTime</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>31.95</v>
+      </c>
+      <c r="E47" t="n">
+        <v>26.13703703703704</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>early &gt; late</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>5.812962962962967</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>difference</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>21.93888888888889</v>
+      </c>
+      <c r="E48" t="n">
+        <v>14.90555555555555</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>early &gt; late</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>7.033333333333337</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>peakValue</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>234.2064814814815</v>
+      </c>
+      <c r="E49" t="n">
+        <v>99.17129629629629</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>early &gt; late</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>135.0351851851852</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>233.2948935185185</v>
+      </c>
+      <c r="E50" t="n">
+        <v>99.44838888888889</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>early &gt; late</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>133.8465046296296</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>210.2894305555556</v>
+      </c>
+      <c r="E51" t="n">
+        <v>90.20940740740741</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>early &gt; late</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>120.0800231481481</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>RMS</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>89.77529629629629</v>
+      </c>
+      <c r="E52" t="n">
+        <v>36.2442037037037</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>early &gt; late</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>53.53109259259259</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>tau</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>116.7894490740741</v>
+      </c>
+      <c r="E53" t="n">
+        <v>117.0621759259259</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>late &gt; early</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>-0.2727268518518429</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>21756.63385648148</v>
+      </c>
+      <c r="E54" t="n">
+        <v>8837.139092592592</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>early &gt; late</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>12919.49476388889</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>8.935</v>
+      </c>
+      <c r="E55" t="n">
+        <v>9.131764705882354</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>late &gt; early</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>-0.1967647058823534</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>IPI</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20.58823529411765</v>
+      </c>
+      <c r="E56" t="n">
+        <v>20.58823529411765</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>late &gt; early</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
           <t>May20</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>reactionTime</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>10.46018518518519</v>
+      </c>
+      <c r="E57" t="n">
+        <v>10</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>early &gt; late</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0.4601851851851855</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>peakTime</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>30.29074074074075</v>
+      </c>
+      <c r="E58" t="n">
+        <v>28.92592592592592</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>early &gt; late</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>1.364814814814824</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
         <is>
           <t>difference</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D59" t="n">
         <v>19.83055555555556</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E59" t="n">
         <v>18.92592592592593</v>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>early &gt; late</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>early &gt; late</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
         <v>0.9046296296296248</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>peakValue</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>162.313888888889</v>
+      </c>
+      <c r="E60" t="n">
+        <v>151.0166666666667</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>early &gt; late</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>11.29722222222227</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>162.2291296296296</v>
+      </c>
+      <c r="E61" t="n">
+        <v>151.2216944444444</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>early &gt; late</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>11.00743518518519</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>146.2106574074074</v>
+      </c>
+      <c r="E62" t="n">
+        <v>139.4710925925926</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>early &gt; late</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>6.739564814814827</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>RMS</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>64.33179629629632</v>
+      </c>
+      <c r="E63" t="n">
+        <v>46.34986111111111</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>early &gt; late</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>17.98193518518521</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>tau</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>129.5212314814815</v>
+      </c>
+      <c r="E64" t="n">
+        <v>60.95931481481481</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>early &gt; late</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>68.56191666666666</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>16045.21368981482</v>
+      </c>
+      <c r="E65" t="n">
+        <v>9303.403685185185</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>early &gt; late</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>6741.810004629631</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>8.935</v>
+      </c>
+      <c r="E66" t="n">
+        <v>9.131764705882354</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>late &gt; early</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>-0.1967647058823534</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>IPI</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>20.58823529411765</v>
+      </c>
+      <c r="E67" t="n">
+        <v>20.58823529411765</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>late &gt; early</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Tester Results/TEST_REC_ORDER_DIRECTION.xlsx
+++ b/Tester Results/TEST_REC_ORDER_DIRECTION.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>IPI</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>20.58823529411765</v>
+        <v>10.48240740740741</v>
       </c>
       <c r="E12" t="n">
-        <v>20.58823529411765</v>
+        <v>9.459259259259261</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1.023148148148147</v>
       </c>
     </row>
     <row r="13">
@@ -824,14 +824,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10.48240740740741</v>
+        <v>31.18055555555556</v>
       </c>
       <c r="E13" t="n">
-        <v>9.459259259259261</v>
+        <v>30.17777777777778</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.023148148148147</v>
+        <v>1.002777777777776</v>
       </c>
     </row>
     <row r="14">
@@ -855,22 +855,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>31.18055555555556</v>
+        <v>20.69814814814815</v>
       </c>
       <c r="E14" t="n">
-        <v>30.17777777777778</v>
+        <v>20.71851851851852</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.002777777777776</v>
+        <v>-0.02037037037036882</v>
       </c>
     </row>
     <row r="15">
@@ -886,14 +886,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>20.69814814814815</v>
+        <v>102.475462962963</v>
       </c>
       <c r="E15" t="n">
-        <v>20.71851851851852</v>
+        <v>114.0638888888889</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-0.02037037037036882</v>
+        <v>-11.5884259259259</v>
       </c>
     </row>
     <row r="16">
@@ -917,14 +917,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>102.475462962963</v>
+        <v>102.1431574074074</v>
       </c>
       <c r="E16" t="n">
-        <v>114.0638888888889</v>
+        <v>114.2151944444444</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-11.5884259259259</v>
+        <v>-12.07203703703703</v>
       </c>
     </row>
     <row r="17">
@@ -948,14 +948,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>102.1431574074074</v>
+        <v>92.38379629629632</v>
       </c>
       <c r="E17" t="n">
-        <v>114.2151944444444</v>
+        <v>100.4224537037037</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-12.07203703703703</v>
+        <v>-8.038657407407385</v>
       </c>
     </row>
     <row r="18">
@@ -979,14 +979,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>92.38379629629632</v>
+        <v>42.57611111111111</v>
       </c>
       <c r="E18" t="n">
-        <v>100.4224537037037</v>
+        <v>48.37812962962963</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-8.038657407407385</v>
+        <v>-5.802018518518516</v>
       </c>
     </row>
     <row r="19">
@@ -1010,14 +1010,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>42.57611111111111</v>
+        <v>150.8274537037037</v>
       </c>
       <c r="E19" t="n">
-        <v>48.37812962962963</v>
+        <v>176.8305740740741</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-5.802018518518516</v>
+        <v>-26.00312037037034</v>
       </c>
     </row>
     <row r="20">
@@ -1041,14 +1041,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>150.8274537037037</v>
+        <v>11873.96275462963</v>
       </c>
       <c r="E20" t="n">
-        <v>176.8305740740741</v>
+        <v>14621.79834259259</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-26.00312037037034</v>
+        <v>-2747.835587962965</v>
       </c>
     </row>
     <row r="21">
@@ -1072,22 +1072,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>11873.96275462963</v>
+        <v>10.435</v>
       </c>
       <c r="E21" t="n">
-        <v>14621.79834259259</v>
+        <v>6.538235294117648</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>-2747.835587962965</v>
+        <v>3.896764705882351</v>
       </c>
     </row>
     <row r="22">
@@ -1098,19 +1098,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>10.435</v>
+        <v>10.92592592592593</v>
       </c>
       <c r="E22" t="n">
-        <v>6.538235294117648</v>
+        <v>10.32407407407407</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.896764705882351</v>
+        <v>0.601851851851853</v>
       </c>
     </row>
     <row r="23">
@@ -1129,19 +1129,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>IPI</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>20.58823529411765</v>
+        <v>30.8962962962963</v>
       </c>
       <c r="E23" t="n">
-        <v>20.58823529411765</v>
+        <v>31.63518518518518</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-0.7388888888888872</v>
       </c>
     </row>
     <row r="24">
@@ -1165,22 +1165,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>10.92592592592593</v>
+        <v>19.97037037037037</v>
       </c>
       <c r="E24" t="n">
-        <v>10.32407407407407</v>
+        <v>21.31111111111111</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.601851851851853</v>
+        <v>-1.340740740740742</v>
       </c>
     </row>
     <row r="25">
@@ -1196,14 +1196,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>30.8962962962963</v>
+        <v>93.23935185185184</v>
       </c>
       <c r="E25" t="n">
-        <v>31.63518518518518</v>
+        <v>99.12037037037038</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>-0.7388888888888872</v>
+        <v>-5.881018518518545</v>
       </c>
     </row>
     <row r="26">
@@ -1227,14 +1227,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>19.97037037037037</v>
+        <v>93.27347685185185</v>
       </c>
       <c r="E26" t="n">
-        <v>21.31111111111111</v>
+        <v>99.34892592592593</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>-1.340740740740742</v>
+        <v>-6.075449074074072</v>
       </c>
     </row>
     <row r="27">
@@ -1258,14 +1258,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>93.23935185185184</v>
+        <v>84.70534259259259</v>
       </c>
       <c r="E27" t="n">
-        <v>99.12037037037038</v>
+        <v>88.98518518518517</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>-5.881018518518545</v>
+        <v>-4.279842592592587</v>
       </c>
     </row>
     <row r="28">
@@ -1289,14 +1289,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>93.27347685185185</v>
+        <v>36.98715740740741</v>
       </c>
       <c r="E28" t="n">
-        <v>99.34892592592593</v>
+        <v>40.64285185185185</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>-6.075449074074072</v>
+        <v>-3.655694444444443</v>
       </c>
     </row>
     <row r="29">
@@ -1320,22 +1320,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>84.70534259259259</v>
+        <v>162.8949814814815</v>
       </c>
       <c r="E29" t="n">
-        <v>88.98518518518517</v>
+        <v>145.1042222222222</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>-4.279842592592587</v>
+        <v>17.79075925925926</v>
       </c>
     </row>
     <row r="30">
@@ -1351,14 +1351,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>36.98715740740741</v>
+        <v>9641.93787037037</v>
       </c>
       <c r="E30" t="n">
-        <v>40.64285185185185</v>
+        <v>10822.44786111111</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>-3.655694444444443</v>
+        <v>-1180.509990740742</v>
       </c>
     </row>
     <row r="31">
@@ -1382,14 +1382,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>162.8949814814815</v>
+        <v>10.435</v>
       </c>
       <c r="E31" t="n">
-        <v>145.1042222222222</v>
+        <v>6.538235294117648</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1397,61 +1397,61 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>17.79075925925926</v>
+        <v>3.896764705882351</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>9641.93787037037</v>
+        <v>10.60555555555556</v>
       </c>
       <c r="E32" t="n">
-        <v>10822.44786111111</v>
+        <v>10.36666666666667</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>-1180.509990740742</v>
+        <v>0.2388888888888889</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>10.435</v>
+        <v>31.11296296296296</v>
       </c>
       <c r="E33" t="n">
-        <v>6.538235294117648</v>
+        <v>30.74814814814815</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1459,38 +1459,38 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.896764705882351</v>
+        <v>0.3648148148148103</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>IPI</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>20.58823529411765</v>
+        <v>20.50740740740741</v>
       </c>
       <c r="E34" t="n">
-        <v>20.58823529411765</v>
+        <v>20.38148148148148</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.1259259259259267</v>
       </c>
     </row>
     <row r="35">
@@ -1506,14 +1506,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>10.60555555555556</v>
+        <v>133.5893518518519</v>
       </c>
       <c r="E35" t="n">
-        <v>10.36666666666667</v>
+        <v>105.9212962962963</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.2388888888888889</v>
+        <v>27.66805555555555</v>
       </c>
     </row>
     <row r="36">
@@ -1537,14 +1537,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>31.11296296296296</v>
+        <v>132.6956898148148</v>
       </c>
       <c r="E36" t="n">
-        <v>30.74814814814815</v>
+        <v>106.0883518518519</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.3648148148148103</v>
+        <v>26.60733796296294</v>
       </c>
     </row>
     <row r="37">
@@ -1568,14 +1568,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>20.50740740740741</v>
+        <v>119.6044166666667</v>
       </c>
       <c r="E37" t="n">
-        <v>20.38148148148148</v>
+        <v>97.25192592592593</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.1259259259259267</v>
+        <v>22.35249074074073</v>
       </c>
     </row>
     <row r="38">
@@ -1599,14 +1599,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>133.5893518518519</v>
+        <v>54.8997314814815</v>
       </c>
       <c r="E38" t="n">
-        <v>105.9212962962963</v>
+        <v>40.78643518518518</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>27.66805555555555</v>
+        <v>14.11329629629631</v>
       </c>
     </row>
     <row r="39">
@@ -1630,14 +1630,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>132.6956898148148</v>
+        <v>144.3176712962963</v>
       </c>
       <c r="E39" t="n">
-        <v>106.0883518518519</v>
+        <v>116.863537037037</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>26.60733796296294</v>
+        <v>27.45413425925926</v>
       </c>
     </row>
     <row r="40">
@@ -1661,14 +1661,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>119.6044166666667</v>
+        <v>13976.09596759259</v>
       </c>
       <c r="E40" t="n">
-        <v>97.25192592592593</v>
+        <v>9238.73998148148</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>22.35249074074073</v>
+        <v>4737.355986111112</v>
       </c>
     </row>
     <row r="41">
@@ -1692,22 +1692,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>54.8997314814815</v>
+        <v>8.935</v>
       </c>
       <c r="E41" t="n">
-        <v>40.78643518518518</v>
+        <v>9.131764705882354</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>14.11329629629631</v>
+        <v>-0.1967647058823534</v>
       </c>
     </row>
     <row r="42">
@@ -1718,27 +1718,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>144.3176712962963</v>
+        <v>10.01111111111111</v>
       </c>
       <c r="E42" t="n">
-        <v>116.863537037037</v>
+        <v>11.23148148148148</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>27.45413425925926</v>
+        <v>-1.22037037037037</v>
       </c>
     </row>
     <row r="43">
@@ -1749,19 +1749,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>13976.09596759259</v>
+        <v>31.95</v>
       </c>
       <c r="E43" t="n">
-        <v>9238.73998148148</v>
+        <v>26.13703703703704</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4737.355986111112</v>
+        <v>5.812962962962967</v>
       </c>
     </row>
     <row r="44">
@@ -1780,27 +1780,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>8.935</v>
+        <v>21.93888888888889</v>
       </c>
       <c r="E44" t="n">
-        <v>9.131764705882354</v>
+        <v>14.90555555555555</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>-0.1967647058823534</v>
+        <v>7.033333333333337</v>
       </c>
     </row>
     <row r="45">
@@ -1811,27 +1811,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>IPI</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>20.58823529411765</v>
+        <v>234.2064814814815</v>
       </c>
       <c r="E45" t="n">
-        <v>20.58823529411765</v>
+        <v>99.17129629629629</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.0351851851852</v>
       </c>
     </row>
     <row r="46">
@@ -1847,22 +1847,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>10.01111111111111</v>
+        <v>233.2948935185185</v>
       </c>
       <c r="E46" t="n">
-        <v>11.23148148148148</v>
+        <v>99.44838888888889</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>-1.22037037037037</v>
+        <v>133.8465046296296</v>
       </c>
     </row>
     <row r="47">
@@ -1878,14 +1878,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>31.95</v>
+        <v>210.2894305555556</v>
       </c>
       <c r="E47" t="n">
-        <v>26.13703703703704</v>
+        <v>90.20940740740741</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.812962962962967</v>
+        <v>120.0800231481481</v>
       </c>
     </row>
     <row r="48">
@@ -1909,14 +1909,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>21.93888888888889</v>
+        <v>89.77529629629629</v>
       </c>
       <c r="E48" t="n">
-        <v>14.90555555555555</v>
+        <v>36.2442037037037</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>7.033333333333337</v>
+        <v>53.53109259259259</v>
       </c>
     </row>
     <row r="49">
@@ -1940,22 +1940,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>234.2064814814815</v>
+        <v>116.7894490740741</v>
       </c>
       <c r="E49" t="n">
-        <v>99.17129629629629</v>
+        <v>117.0621759259259</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>135.0351851851852</v>
+        <v>-0.2727268518518429</v>
       </c>
     </row>
     <row r="50">
@@ -1971,14 +1971,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>233.2948935185185</v>
+        <v>21756.63385648148</v>
       </c>
       <c r="E50" t="n">
-        <v>99.44838888888889</v>
+        <v>8837.139092592592</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>133.8465046296296</v>
+        <v>12919.49476388889</v>
       </c>
     </row>
     <row r="51">
@@ -2002,22 +2002,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>210.2894305555556</v>
+        <v>8.935</v>
       </c>
       <c r="E51" t="n">
-        <v>90.20940740740741</v>
+        <v>9.131764705882354</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>120.0800231481481</v>
+        <v>-0.1967647058823534</v>
       </c>
     </row>
     <row r="52">
@@ -2028,19 +2028,19 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>89.77529629629629</v>
+        <v>10.46018518518519</v>
       </c>
       <c r="E52" t="n">
-        <v>36.2442037037037</v>
+        <v>10</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>53.53109259259259</v>
+        <v>0.4601851851851855</v>
       </c>
     </row>
     <row r="53">
@@ -2059,27 +2059,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>116.7894490740741</v>
+        <v>30.29074074074075</v>
       </c>
       <c r="E53" t="n">
-        <v>117.0621759259259</v>
+        <v>28.92592592592592</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>-0.2727268518518429</v>
+        <v>1.364814814814824</v>
       </c>
     </row>
     <row r="54">
@@ -2090,19 +2090,19 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>21756.63385648148</v>
+        <v>19.83055555555556</v>
       </c>
       <c r="E54" t="n">
-        <v>8837.139092592592</v>
+        <v>18.92592592592593</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>12919.49476388889</v>
+        <v>0.9046296296296248</v>
       </c>
     </row>
     <row r="55">
@@ -2121,27 +2121,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>8.935</v>
+        <v>162.313888888889</v>
       </c>
       <c r="E55" t="n">
-        <v>9.131764705882354</v>
+        <v>151.0166666666667</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>-0.1967647058823534</v>
+        <v>11.29722222222227</v>
       </c>
     </row>
     <row r="56">
@@ -2152,27 +2152,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>IPI</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>20.58823529411765</v>
+        <v>162.2291296296296</v>
       </c>
       <c r="E56" t="n">
-        <v>20.58823529411765</v>
+        <v>151.2216944444444</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>11.00743518518519</v>
       </c>
     </row>
     <row r="57">
@@ -2188,14 +2188,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>10.46018518518519</v>
+        <v>146.2106574074074</v>
       </c>
       <c r="E57" t="n">
-        <v>10</v>
+        <v>139.4710925925926</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.4601851851851855</v>
+        <v>6.739564814814827</v>
       </c>
     </row>
     <row r="58">
@@ -2219,14 +2219,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>30.29074074074075</v>
+        <v>64.33179629629632</v>
       </c>
       <c r="E58" t="n">
-        <v>28.92592592592592</v>
+        <v>46.34986111111111</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.364814814814824</v>
+        <v>17.98193518518521</v>
       </c>
     </row>
     <row r="59">
@@ -2250,14 +2250,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>19.83055555555556</v>
+        <v>129.5212314814815</v>
       </c>
       <c r="E59" t="n">
-        <v>18.92592592592593</v>
+        <v>60.95931481481481</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.9046296296296248</v>
+        <v>68.56191666666666</v>
       </c>
     </row>
     <row r="60">
@@ -2281,14 +2281,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>162.313888888889</v>
+        <v>16045.21368981482</v>
       </c>
       <c r="E60" t="n">
-        <v>151.0166666666667</v>
+        <v>9303.403685185185</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>11.29722222222227</v>
+        <v>6741.810004629631</v>
       </c>
     </row>
     <row r="61">
@@ -2312,208 +2312,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>162.2291296296296</v>
+        <v>8.935</v>
       </c>
       <c r="E61" t="n">
-        <v>151.2216944444444</v>
+        <v>9.131764705882354</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>11.00743518518519</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>PTTA</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>146.2106574074074</v>
-      </c>
-      <c r="E62" t="n">
-        <v>139.4710925925926</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>early &gt; late</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
-        <v>6.739564814814827</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>64.33179629629632</v>
-      </c>
-      <c r="E63" t="n">
-        <v>46.34986111111111</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>early &gt; late</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>17.98193518518521</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>129.5212314814815</v>
-      </c>
-      <c r="E64" t="n">
-        <v>60.95931481481481</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>early &gt; late</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
-        <v>68.56191666666666</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>16045.21368981482</v>
-      </c>
-      <c r="E65" t="n">
-        <v>9303.403685185185</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>early &gt; late</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
-        <v>6741.810004629631</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>8.935</v>
-      </c>
-      <c r="E66" t="n">
-        <v>9.131764705882354</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>late &gt; early</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
         <v>-0.1967647058823534</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>IPI</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>20.58823529411765</v>
-      </c>
-      <c r="E67" t="n">
-        <v>20.58823529411765</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>late &gt; early</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Tester Results/TEST_REC_ORDER_DIRECTION.xlsx
+++ b/Tester Results/TEST_REC_ORDER_DIRECTION.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>prepulse_intensity</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10.48240740740741</v>
+        <v>24.11764705882353</v>
       </c>
       <c r="E12" t="n">
-        <v>9.459259259259261</v>
+        <v>24.11764705882353</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.023148148148147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -824,14 +824,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>31.18055555555556</v>
+        <v>10.48240740740741</v>
       </c>
       <c r="E13" t="n">
-        <v>30.17777777777778</v>
+        <v>9.459259259259261</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.002777777777776</v>
+        <v>1.023148148148147</v>
       </c>
     </row>
     <row r="14">
@@ -855,22 +855,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20.69814814814815</v>
+        <v>31.18055555555556</v>
       </c>
       <c r="E14" t="n">
-        <v>20.71851851851852</v>
+        <v>30.17777777777778</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-0.02037037037036882</v>
+        <v>1.002777777777776</v>
       </c>
     </row>
     <row r="15">
@@ -886,14 +886,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>102.475462962963</v>
+        <v>20.69814814814815</v>
       </c>
       <c r="E15" t="n">
-        <v>114.0638888888889</v>
+        <v>20.71851851851852</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-11.5884259259259</v>
+        <v>-0.02037037037036882</v>
       </c>
     </row>
     <row r="16">
@@ -917,14 +917,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>102.1431574074074</v>
+        <v>102.475462962963</v>
       </c>
       <c r="E16" t="n">
-        <v>114.2151944444444</v>
+        <v>114.0638888888889</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-12.07203703703703</v>
+        <v>-11.5884259259259</v>
       </c>
     </row>
     <row r="17">
@@ -948,14 +948,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>92.38379629629632</v>
+        <v>102.1431574074074</v>
       </c>
       <c r="E17" t="n">
-        <v>100.4224537037037</v>
+        <v>114.2151944444444</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-8.038657407407385</v>
+        <v>-12.07203703703703</v>
       </c>
     </row>
     <row r="18">
@@ -979,14 +979,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>42.57611111111111</v>
+        <v>92.38379629629632</v>
       </c>
       <c r="E18" t="n">
-        <v>48.37812962962963</v>
+        <v>100.4224537037037</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-5.802018518518516</v>
+        <v>-8.038657407407385</v>
       </c>
     </row>
     <row r="19">
@@ -1010,14 +1010,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>150.8274537037037</v>
+        <v>42.57611111111111</v>
       </c>
       <c r="E19" t="n">
-        <v>176.8305740740741</v>
+        <v>48.37812962962963</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-26.00312037037034</v>
+        <v>-5.802018518518516</v>
       </c>
     </row>
     <row r="20">
@@ -1041,14 +1041,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>11873.96275462963</v>
+        <v>150.8274537037037</v>
       </c>
       <c r="E20" t="n">
-        <v>14621.79834259259</v>
+        <v>176.8305740740741</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-2747.835587962965</v>
+        <v>-26.00312037037034</v>
       </c>
     </row>
     <row r="21">
@@ -1072,22 +1072,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10.435</v>
+        <v>11873.96275462963</v>
       </c>
       <c r="E21" t="n">
-        <v>6.538235294117648</v>
+        <v>14621.79834259259</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.896764705882351</v>
+        <v>-2747.835587962965</v>
       </c>
     </row>
     <row r="22">
@@ -1098,19 +1098,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>10.92592592592593</v>
+        <v>10.435</v>
       </c>
       <c r="E22" t="n">
-        <v>10.32407407407407</v>
+        <v>6.538235294117648</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.601851851851853</v>
+        <v>3.896764705882351</v>
       </c>
     </row>
     <row r="23">
@@ -1129,19 +1129,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>prepulse_intensity</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>30.8962962962963</v>
+        <v>24.11764705882353</v>
       </c>
       <c r="E23" t="n">
-        <v>31.63518518518518</v>
+        <v>24.11764705882353</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>-0.7388888888888872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1165,22 +1165,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>19.97037037037037</v>
+        <v>10.92592592592593</v>
       </c>
       <c r="E24" t="n">
-        <v>21.31111111111111</v>
+        <v>10.32407407407407</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>-1.340740740740742</v>
+        <v>0.601851851851853</v>
       </c>
     </row>
     <row r="25">
@@ -1196,14 +1196,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>93.23935185185184</v>
+        <v>30.8962962962963</v>
       </c>
       <c r="E25" t="n">
-        <v>99.12037037037038</v>
+        <v>31.63518518518518</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>-5.881018518518545</v>
+        <v>-0.7388888888888872</v>
       </c>
     </row>
     <row r="26">
@@ -1227,14 +1227,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>93.27347685185185</v>
+        <v>19.97037037037037</v>
       </c>
       <c r="E26" t="n">
-        <v>99.34892592592593</v>
+        <v>21.31111111111111</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>-6.075449074074072</v>
+        <v>-1.340740740740742</v>
       </c>
     </row>
     <row r="27">
@@ -1258,14 +1258,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>84.70534259259259</v>
+        <v>93.23935185185184</v>
       </c>
       <c r="E27" t="n">
-        <v>88.98518518518517</v>
+        <v>99.12037037037038</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>-4.279842592592587</v>
+        <v>-5.881018518518545</v>
       </c>
     </row>
     <row r="28">
@@ -1289,14 +1289,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>36.98715740740741</v>
+        <v>93.27347685185185</v>
       </c>
       <c r="E28" t="n">
-        <v>40.64285185185185</v>
+        <v>99.34892592592593</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>-3.655694444444443</v>
+        <v>-6.075449074074072</v>
       </c>
     </row>
     <row r="29">
@@ -1320,22 +1320,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>162.8949814814815</v>
+        <v>84.70534259259259</v>
       </c>
       <c r="E29" t="n">
-        <v>145.1042222222222</v>
+        <v>88.98518518518517</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>17.79075925925926</v>
+        <v>-4.279842592592587</v>
       </c>
     </row>
     <row r="30">
@@ -1351,14 +1351,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>9641.93787037037</v>
+        <v>36.98715740740741</v>
       </c>
       <c r="E30" t="n">
-        <v>10822.44786111111</v>
+        <v>40.64285185185185</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>-1180.509990740742</v>
+        <v>-3.655694444444443</v>
       </c>
     </row>
     <row r="31">
@@ -1382,14 +1382,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>10.435</v>
+        <v>162.8949814814815</v>
       </c>
       <c r="E31" t="n">
-        <v>6.538235294117648</v>
+        <v>145.1042222222222</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1397,61 +1397,61 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.896764705882351</v>
+        <v>17.79075925925926</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10.60555555555556</v>
+        <v>9641.93787037037</v>
       </c>
       <c r="E32" t="n">
-        <v>10.36666666666667</v>
+        <v>10822.44786111111</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.2388888888888889</v>
+        <v>-1180.509990740742</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>31.11296296296296</v>
+        <v>10.435</v>
       </c>
       <c r="E33" t="n">
-        <v>30.74814814814815</v>
+        <v>6.538235294117648</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1459,38 +1459,38 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.3648148148148103</v>
+        <v>3.896764705882351</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>prepulse_intensity</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>20.50740740740741</v>
+        <v>24.11764705882353</v>
       </c>
       <c r="E34" t="n">
-        <v>20.38148148148148</v>
+        <v>24.11764705882353</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.1259259259259267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1506,14 +1506,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>133.5893518518519</v>
+        <v>10.60555555555556</v>
       </c>
       <c r="E35" t="n">
-        <v>105.9212962962963</v>
+        <v>10.36666666666667</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>27.66805555555555</v>
+        <v>0.2388888888888889</v>
       </c>
     </row>
     <row r="36">
@@ -1537,14 +1537,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>132.6956898148148</v>
+        <v>31.11296296296296</v>
       </c>
       <c r="E36" t="n">
-        <v>106.0883518518519</v>
+        <v>30.74814814814815</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>26.60733796296294</v>
+        <v>0.3648148148148103</v>
       </c>
     </row>
     <row r="37">
@@ -1568,14 +1568,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>119.6044166666667</v>
+        <v>20.50740740740741</v>
       </c>
       <c r="E37" t="n">
-        <v>97.25192592592593</v>
+        <v>20.38148148148148</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>22.35249074074073</v>
+        <v>0.1259259259259267</v>
       </c>
     </row>
     <row r="38">
@@ -1599,14 +1599,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>54.8997314814815</v>
+        <v>133.5893518518519</v>
       </c>
       <c r="E38" t="n">
-        <v>40.78643518518518</v>
+        <v>105.9212962962963</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>14.11329629629631</v>
+        <v>27.66805555555555</v>
       </c>
     </row>
     <row r="39">
@@ -1630,14 +1630,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>144.3176712962963</v>
+        <v>132.6956898148148</v>
       </c>
       <c r="E39" t="n">
-        <v>116.863537037037</v>
+        <v>106.0883518518519</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>27.45413425925926</v>
+        <v>26.60733796296294</v>
       </c>
     </row>
     <row r="40">
@@ -1661,14 +1661,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>13976.09596759259</v>
+        <v>119.6044166666667</v>
       </c>
       <c r="E40" t="n">
-        <v>9238.73998148148</v>
+        <v>97.25192592592593</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4737.355986111112</v>
+        <v>22.35249074074073</v>
       </c>
     </row>
     <row r="41">
@@ -1692,22 +1692,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>8.935</v>
+        <v>54.8997314814815</v>
       </c>
       <c r="E41" t="n">
-        <v>9.131764705882354</v>
+        <v>40.78643518518518</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>-0.1967647058823534</v>
+        <v>14.11329629629631</v>
       </c>
     </row>
     <row r="42">
@@ -1718,27 +1718,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>10.01111111111111</v>
+        <v>144.3176712962963</v>
       </c>
       <c r="E42" t="n">
-        <v>11.23148148148148</v>
+        <v>116.863537037037</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>-1.22037037037037</v>
+        <v>27.45413425925926</v>
       </c>
     </row>
     <row r="43">
@@ -1749,19 +1749,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>31.95</v>
+        <v>13976.09596759259</v>
       </c>
       <c r="E43" t="n">
-        <v>26.13703703703704</v>
+        <v>9238.73998148148</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5.812962962962967</v>
+        <v>4737.355986111112</v>
       </c>
     </row>
     <row r="44">
@@ -1780,27 +1780,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>21.93888888888889</v>
+        <v>8.935</v>
       </c>
       <c r="E44" t="n">
-        <v>14.90555555555555</v>
+        <v>9.131764705882354</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>7.033333333333337</v>
+        <v>-0.1967647058823534</v>
       </c>
     </row>
     <row r="45">
@@ -1811,27 +1811,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>prepulse_intensity</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>234.2064814814815</v>
+        <v>24.11764705882353</v>
       </c>
       <c r="E45" t="n">
-        <v>99.17129629629629</v>
+        <v>24.11764705882353</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>135.0351851851852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1847,22 +1847,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>233.2948935185185</v>
+        <v>10.01111111111111</v>
       </c>
       <c r="E46" t="n">
-        <v>99.44838888888889</v>
+        <v>11.23148148148148</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>133.8465046296296</v>
+        <v>-1.22037037037037</v>
       </c>
     </row>
     <row r="47">
@@ -1878,14 +1878,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>210.2894305555556</v>
+        <v>31.95</v>
       </c>
       <c r="E47" t="n">
-        <v>90.20940740740741</v>
+        <v>26.13703703703704</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>120.0800231481481</v>
+        <v>5.812962962962967</v>
       </c>
     </row>
     <row r="48">
@@ -1909,14 +1909,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>89.77529629629629</v>
+        <v>21.93888888888889</v>
       </c>
       <c r="E48" t="n">
-        <v>36.2442037037037</v>
+        <v>14.90555555555555</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>53.53109259259259</v>
+        <v>7.033333333333337</v>
       </c>
     </row>
     <row r="49">
@@ -1940,22 +1940,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>116.7894490740741</v>
+        <v>234.2064814814815</v>
       </c>
       <c r="E49" t="n">
-        <v>117.0621759259259</v>
+        <v>99.17129629629629</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>-0.2727268518518429</v>
+        <v>135.0351851851852</v>
       </c>
     </row>
     <row r="50">
@@ -1971,14 +1971,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>21756.63385648148</v>
+        <v>233.2948935185185</v>
       </c>
       <c r="E50" t="n">
-        <v>8837.139092592592</v>
+        <v>99.44838888888889</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>12919.49476388889</v>
+        <v>133.8465046296296</v>
       </c>
     </row>
     <row r="51">
@@ -2002,22 +2002,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>8.935</v>
+        <v>210.2894305555556</v>
       </c>
       <c r="E51" t="n">
-        <v>9.131764705882354</v>
+        <v>90.20940740740741</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>-0.1967647058823534</v>
+        <v>120.0800231481481</v>
       </c>
     </row>
     <row r="52">
@@ -2028,19 +2028,19 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>10.46018518518519</v>
+        <v>89.77529629629629</v>
       </c>
       <c r="E52" t="n">
-        <v>10</v>
+        <v>36.2442037037037</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.4601851851851855</v>
+        <v>53.53109259259259</v>
       </c>
     </row>
     <row r="53">
@@ -2059,27 +2059,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30.29074074074075</v>
+        <v>116.7894490740741</v>
       </c>
       <c r="E53" t="n">
-        <v>28.92592592592592</v>
+        <v>117.0621759259259</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.364814814814824</v>
+        <v>-0.2727268518518429</v>
       </c>
     </row>
     <row r="54">
@@ -2090,19 +2090,19 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>19.83055555555556</v>
+        <v>21756.63385648148</v>
       </c>
       <c r="E54" t="n">
-        <v>18.92592592592593</v>
+        <v>8837.139092592592</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.9046296296296248</v>
+        <v>12919.49476388889</v>
       </c>
     </row>
     <row r="55">
@@ -2121,27 +2121,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>162.313888888889</v>
+        <v>8.935</v>
       </c>
       <c r="E55" t="n">
-        <v>151.0166666666667</v>
+        <v>9.131764705882354</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>11.29722222222227</v>
+        <v>-0.1967647058823534</v>
       </c>
     </row>
     <row r="56">
@@ -2152,27 +2152,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>prepulse_intensity</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>162.2291296296296</v>
+        <v>24.11764705882353</v>
       </c>
       <c r="E56" t="n">
-        <v>151.2216944444444</v>
+        <v>24.11764705882353</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>11.00743518518519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2188,14 +2188,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>146.2106574074074</v>
+        <v>10.46018518518519</v>
       </c>
       <c r="E57" t="n">
-        <v>139.4710925925926</v>
+        <v>10</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>6.739564814814827</v>
+        <v>0.4601851851851855</v>
       </c>
     </row>
     <row r="58">
@@ -2219,14 +2219,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>64.33179629629632</v>
+        <v>30.29074074074075</v>
       </c>
       <c r="E58" t="n">
-        <v>46.34986111111111</v>
+        <v>28.92592592592592</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>17.98193518518521</v>
+        <v>1.364814814814824</v>
       </c>
     </row>
     <row r="59">
@@ -2250,14 +2250,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>129.5212314814815</v>
+        <v>19.83055555555556</v>
       </c>
       <c r="E59" t="n">
-        <v>60.95931481481481</v>
+        <v>18.92592592592593</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>68.56191666666666</v>
+        <v>0.9046296296296248</v>
       </c>
     </row>
     <row r="60">
@@ -2281,14 +2281,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>16045.21368981482</v>
+        <v>162.313888888889</v>
       </c>
       <c r="E60" t="n">
-        <v>9303.403685185185</v>
+        <v>151.0166666666667</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>6741.810004629631</v>
+        <v>11.29722222222227</v>
       </c>
     </row>
     <row r="61">
@@ -2312,22 +2312,208 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>162.2291296296296</v>
+      </c>
+      <c r="E61" t="n">
+        <v>151.2216944444444</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>early &gt; late</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>11.00743518518519</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>146.2106574074074</v>
+      </c>
+      <c r="E62" t="n">
+        <v>139.4710925925926</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>early &gt; late</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>6.739564814814827</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>RMS</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>64.33179629629632</v>
+      </c>
+      <c r="E63" t="n">
+        <v>46.34986111111111</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>early &gt; late</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>17.98193518518521</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>tau</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>129.5212314814815</v>
+      </c>
+      <c r="E64" t="n">
+        <v>60.95931481481481</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>early &gt; late</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>68.56191666666666</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>16045.21368981482</v>
+      </c>
+      <c r="E65" t="n">
+        <v>9303.403685185185</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>early &gt; late</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>6741.810004629631</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>percentPPI</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="D66" t="n">
         <v>8.935</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E66" t="n">
         <v>9.131764705882354</v>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>late &gt; early</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>late &gt; early</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
         <v>-0.1967647058823534</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>prepulse_intensity</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>24.11764705882353</v>
+      </c>
+      <c r="E67" t="n">
+        <v>24.11764705882353</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>late &gt; early</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Tester Results/TEST_REC_ORDER_DIRECTION.xlsx
+++ b/Tester Results/TEST_REC_ORDER_DIRECTION.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -514,7 +514,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -545,7 +545,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -576,7 +576,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -607,7 +607,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -638,7 +638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -669,7 +669,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -700,7 +700,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -731,7 +731,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>prepulse_intensity</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>24.11764705882353</v>
+        <v>10.48240740740741</v>
       </c>
       <c r="E12" t="n">
-        <v>24.11764705882353</v>
+        <v>9.459259259259261</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1.023148148148147</v>
       </c>
     </row>
     <row r="13">
@@ -824,14 +824,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10.48240740740741</v>
+        <v>31.18055555555556</v>
       </c>
       <c r="E13" t="n">
-        <v>9.459259259259261</v>
+        <v>30.17777777777778</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.023148148148147</v>
+        <v>1.002777777777776</v>
       </c>
     </row>
     <row r="14">
@@ -855,22 +855,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>31.18055555555556</v>
+        <v>20.69814814814815</v>
       </c>
       <c r="E14" t="n">
-        <v>30.17777777777778</v>
+        <v>20.71851851851852</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.002777777777776</v>
+        <v>-0.02037037037036882</v>
       </c>
     </row>
     <row r="15">
@@ -886,14 +886,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>20.69814814814815</v>
+        <v>102.475462962963</v>
       </c>
       <c r="E15" t="n">
-        <v>20.71851851851852</v>
+        <v>114.0638888888889</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-0.02037037037036882</v>
+        <v>-11.5884259259259</v>
       </c>
     </row>
     <row r="16">
@@ -917,14 +917,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>102.475462962963</v>
+        <v>102.1431574074074</v>
       </c>
       <c r="E16" t="n">
-        <v>114.0638888888889</v>
+        <v>114.2151944444444</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-11.5884259259259</v>
+        <v>-12.07203703703703</v>
       </c>
     </row>
     <row r="17">
@@ -948,14 +948,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>102.1431574074074</v>
+        <v>92.38379629629632</v>
       </c>
       <c r="E17" t="n">
-        <v>114.2151944444444</v>
+        <v>100.4224537037037</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-12.07203703703703</v>
+        <v>-8.038657407407385</v>
       </c>
     </row>
     <row r="18">
@@ -979,14 +979,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>92.38379629629632</v>
+        <v>42.57611111111111</v>
       </c>
       <c r="E18" t="n">
-        <v>100.4224537037037</v>
+        <v>48.37812962962963</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-8.038657407407385</v>
+        <v>-5.802018518518516</v>
       </c>
     </row>
     <row r="19">
@@ -1010,14 +1010,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>42.57611111111111</v>
+        <v>150.8274537037037</v>
       </c>
       <c r="E19" t="n">
-        <v>48.37812962962963</v>
+        <v>176.8305740740741</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-5.802018518518516</v>
+        <v>-26.00312037037034</v>
       </c>
     </row>
     <row r="20">
@@ -1041,14 +1041,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>150.8274537037037</v>
+        <v>11873.96275462963</v>
       </c>
       <c r="E20" t="n">
-        <v>176.8305740740741</v>
+        <v>14621.79834259259</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-26.00312037037034</v>
+        <v>-2747.835587962965</v>
       </c>
     </row>
     <row r="21">
@@ -1072,22 +1072,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>11873.96275462963</v>
+        <v>10.435</v>
       </c>
       <c r="E21" t="n">
-        <v>14621.79834259259</v>
+        <v>6.538235294117648</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>-2747.835587962965</v>
+        <v>3.896764705882351</v>
       </c>
     </row>
     <row r="22">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>10.435</v>
+        <v>10.92592592592593</v>
       </c>
       <c r="E22" t="n">
-        <v>6.538235294117648</v>
+        <v>10.32407407407407</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.896764705882351</v>
+        <v>0.601851851851853</v>
       </c>
     </row>
     <row r="23">
@@ -1129,19 +1129,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>prepulse_intensity</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>24.11764705882353</v>
+        <v>30.8962962962963</v>
       </c>
       <c r="E23" t="n">
-        <v>24.11764705882353</v>
+        <v>31.63518518518518</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-0.7388888888888872</v>
       </c>
     </row>
     <row r="24">
@@ -1165,22 +1165,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>10.92592592592593</v>
+        <v>19.97037037037037</v>
       </c>
       <c r="E24" t="n">
-        <v>10.32407407407407</v>
+        <v>21.31111111111111</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.601851851851853</v>
+        <v>-1.340740740740742</v>
       </c>
     </row>
     <row r="25">
@@ -1196,14 +1196,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>30.8962962962963</v>
+        <v>93.23935185185184</v>
       </c>
       <c r="E25" t="n">
-        <v>31.63518518518518</v>
+        <v>99.12037037037038</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>-0.7388888888888872</v>
+        <v>-5.881018518518545</v>
       </c>
     </row>
     <row r="26">
@@ -1227,14 +1227,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>19.97037037037037</v>
+        <v>93.27347685185185</v>
       </c>
       <c r="E26" t="n">
-        <v>21.31111111111111</v>
+        <v>99.34892592592593</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>-1.340740740740742</v>
+        <v>-6.075449074074072</v>
       </c>
     </row>
     <row r="27">
@@ -1258,14 +1258,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>93.23935185185184</v>
+        <v>84.70534259259259</v>
       </c>
       <c r="E27" t="n">
-        <v>99.12037037037038</v>
+        <v>88.98518518518517</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>-5.881018518518545</v>
+        <v>-4.279842592592587</v>
       </c>
     </row>
     <row r="28">
@@ -1289,14 +1289,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>93.27347685185185</v>
+        <v>36.98715740740741</v>
       </c>
       <c r="E28" t="n">
-        <v>99.34892592592593</v>
+        <v>40.64285185185185</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>-6.075449074074072</v>
+        <v>-3.655694444444443</v>
       </c>
     </row>
     <row r="29">
@@ -1320,22 +1320,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>84.70534259259259</v>
+        <v>162.8949814814815</v>
       </c>
       <c r="E29" t="n">
-        <v>88.98518518518517</v>
+        <v>145.1042222222222</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>-4.279842592592587</v>
+        <v>17.79075925925926</v>
       </c>
     </row>
     <row r="30">
@@ -1351,14 +1351,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>36.98715740740741</v>
+        <v>9641.93787037037</v>
       </c>
       <c r="E30" t="n">
-        <v>40.64285185185185</v>
+        <v>10822.44786111111</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>-3.655694444444443</v>
+        <v>-1180.509990740742</v>
       </c>
     </row>
     <row r="31">
@@ -1382,14 +1382,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>162.8949814814815</v>
+        <v>10.435</v>
       </c>
       <c r="E31" t="n">
-        <v>145.1042222222222</v>
+        <v>6.538235294117648</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1397,49 +1397,49 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>17.79075925925926</v>
+        <v>3.896764705882351</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>9641.93787037037</v>
+        <v>10.60555555555556</v>
       </c>
       <c r="E32" t="n">
-        <v>10822.44786111111</v>
+        <v>10.36666666666667</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>-1180.509990740742</v>
+        <v>0.2388888888888889</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>10.435</v>
+        <v>31.11296296296296</v>
       </c>
       <c r="E33" t="n">
-        <v>6.538235294117648</v>
+        <v>30.74814814814815</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1459,38 +1459,38 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.896764705882351</v>
+        <v>0.3648148148148103</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>prepulse_intensity</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>24.11764705882353</v>
+        <v>20.50740740740741</v>
       </c>
       <c r="E34" t="n">
-        <v>24.11764705882353</v>
+        <v>20.38148148148148</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.1259259259259267</v>
       </c>
     </row>
     <row r="35">
@@ -1506,14 +1506,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>10.60555555555556</v>
+        <v>133.5893518518519</v>
       </c>
       <c r="E35" t="n">
-        <v>10.36666666666667</v>
+        <v>105.9212962962963</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.2388888888888889</v>
+        <v>27.66805555555555</v>
       </c>
     </row>
     <row r="36">
@@ -1537,14 +1537,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>31.11296296296296</v>
+        <v>132.6956898148148</v>
       </c>
       <c r="E36" t="n">
-        <v>30.74814814814815</v>
+        <v>106.0883518518519</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.3648148148148103</v>
+        <v>26.60733796296294</v>
       </c>
     </row>
     <row r="37">
@@ -1568,14 +1568,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>20.50740740740741</v>
+        <v>119.6044166666667</v>
       </c>
       <c r="E37" t="n">
-        <v>20.38148148148148</v>
+        <v>97.25192592592593</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.1259259259259267</v>
+        <v>22.35249074074073</v>
       </c>
     </row>
     <row r="38">
@@ -1599,14 +1599,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>133.5893518518519</v>
+        <v>54.8997314814815</v>
       </c>
       <c r="E38" t="n">
-        <v>105.9212962962963</v>
+        <v>40.78643518518518</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>27.66805555555555</v>
+        <v>14.11329629629631</v>
       </c>
     </row>
     <row r="39">
@@ -1630,14 +1630,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>132.6956898148148</v>
+        <v>144.3176712962963</v>
       </c>
       <c r="E39" t="n">
-        <v>106.0883518518519</v>
+        <v>116.863537037037</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>26.60733796296294</v>
+        <v>27.45413425925926</v>
       </c>
     </row>
     <row r="40">
@@ -1661,14 +1661,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>119.6044166666667</v>
+        <v>13976.09596759259</v>
       </c>
       <c r="E40" t="n">
-        <v>97.25192592592593</v>
+        <v>9238.73998148148</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>22.35249074074073</v>
+        <v>4737.355986111112</v>
       </c>
     </row>
     <row r="41">
@@ -1692,22 +1692,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>54.8997314814815</v>
+        <v>8.935</v>
       </c>
       <c r="E41" t="n">
-        <v>40.78643518518518</v>
+        <v>9.131764705882354</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>14.11329629629631</v>
+        <v>-0.1967647058823534</v>
       </c>
     </row>
     <row r="42">
@@ -1718,27 +1718,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>144.3176712962963</v>
+        <v>10.01111111111111</v>
       </c>
       <c r="E42" t="n">
-        <v>116.863537037037</v>
+        <v>11.23148148148148</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>27.45413425925926</v>
+        <v>-1.22037037037037</v>
       </c>
     </row>
     <row r="43">
@@ -1749,19 +1749,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>13976.09596759259</v>
+        <v>31.95</v>
       </c>
       <c r="E43" t="n">
-        <v>9238.73998148148</v>
+        <v>26.13703703703704</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4737.355986111112</v>
+        <v>5.812962962962967</v>
       </c>
     </row>
     <row r="44">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1789,18 +1789,18 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>8.935</v>
+        <v>21.93888888888889</v>
       </c>
       <c r="E44" t="n">
-        <v>9.131764705882354</v>
+        <v>14.90555555555555</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>-0.1967647058823534</v>
+        <v>7.033333333333337</v>
       </c>
     </row>
     <row r="45">
@@ -1811,27 +1811,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>prepulse_intensity</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>24.11764705882353</v>
+        <v>234.2064814814815</v>
       </c>
       <c r="E45" t="n">
-        <v>24.11764705882353</v>
+        <v>99.17129629629629</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.0351851851852</v>
       </c>
     </row>
     <row r="46">
@@ -1847,22 +1847,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>10.01111111111111</v>
+        <v>233.2948935185185</v>
       </c>
       <c r="E46" t="n">
-        <v>11.23148148148148</v>
+        <v>99.44838888888889</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>-1.22037037037037</v>
+        <v>133.8465046296296</v>
       </c>
     </row>
     <row r="47">
@@ -1878,14 +1878,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>31.95</v>
+        <v>210.2894305555556</v>
       </c>
       <c r="E47" t="n">
-        <v>26.13703703703704</v>
+        <v>90.20940740740741</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.812962962962967</v>
+        <v>120.0800231481481</v>
       </c>
     </row>
     <row r="48">
@@ -1909,14 +1909,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>21.93888888888889</v>
+        <v>89.77529629629629</v>
       </c>
       <c r="E48" t="n">
-        <v>14.90555555555555</v>
+        <v>36.2442037037037</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>7.033333333333337</v>
+        <v>53.53109259259259</v>
       </c>
     </row>
     <row r="49">
@@ -1940,22 +1940,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>234.2064814814815</v>
+        <v>116.7894490740741</v>
       </c>
       <c r="E49" t="n">
-        <v>99.17129629629629</v>
+        <v>117.0621759259259</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>135.0351851851852</v>
+        <v>-0.2727268518518429</v>
       </c>
     </row>
     <row r="50">
@@ -1971,14 +1971,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>233.2948935185185</v>
+        <v>21756.63385648148</v>
       </c>
       <c r="E50" t="n">
-        <v>99.44838888888889</v>
+        <v>8837.139092592592</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>133.8465046296296</v>
+        <v>12919.49476388889</v>
       </c>
     </row>
     <row r="51">
@@ -2002,22 +2002,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>210.2894305555556</v>
+        <v>8.935</v>
       </c>
       <c r="E51" t="n">
-        <v>90.20940740740741</v>
+        <v>9.131764705882354</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>120.0800231481481</v>
+        <v>-0.1967647058823534</v>
       </c>
     </row>
     <row r="52">
@@ -2028,19 +2028,19 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>89.77529629629629</v>
+        <v>10.46018518518519</v>
       </c>
       <c r="E52" t="n">
-        <v>36.2442037037037</v>
+        <v>10</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>53.53109259259259</v>
+        <v>0.4601851851851855</v>
       </c>
     </row>
     <row r="53">
@@ -2059,27 +2059,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>116.7894490740741</v>
+        <v>30.29074074074075</v>
       </c>
       <c r="E53" t="n">
-        <v>117.0621759259259</v>
+        <v>28.92592592592592</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>-0.2727268518518429</v>
+        <v>1.364814814814824</v>
       </c>
     </row>
     <row r="54">
@@ -2090,19 +2090,19 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>21756.63385648148</v>
+        <v>19.83055555555556</v>
       </c>
       <c r="E54" t="n">
-        <v>8837.139092592592</v>
+        <v>18.92592592592593</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>12919.49476388889</v>
+        <v>0.9046296296296248</v>
       </c>
     </row>
     <row r="55">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2130,18 +2130,18 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>8.935</v>
+        <v>162.313888888889</v>
       </c>
       <c r="E55" t="n">
-        <v>9.131764705882354</v>
+        <v>151.0166666666667</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>-0.1967647058823534</v>
+        <v>11.29722222222227</v>
       </c>
     </row>
     <row r="56">
@@ -2152,27 +2152,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>prepulse_intensity</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>24.11764705882353</v>
+        <v>162.2291296296296</v>
       </c>
       <c r="E56" t="n">
-        <v>24.11764705882353</v>
+        <v>151.2216944444444</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>11.00743518518519</v>
       </c>
     </row>
     <row r="57">
@@ -2188,14 +2188,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>10.46018518518519</v>
+        <v>146.2106574074074</v>
       </c>
       <c r="E57" t="n">
-        <v>10</v>
+        <v>139.4710925925926</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.4601851851851855</v>
+        <v>6.739564814814827</v>
       </c>
     </row>
     <row r="58">
@@ -2219,14 +2219,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>30.29074074074075</v>
+        <v>64.33179629629632</v>
       </c>
       <c r="E58" t="n">
-        <v>28.92592592592592</v>
+        <v>46.34986111111111</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.364814814814824</v>
+        <v>17.98193518518521</v>
       </c>
     </row>
     <row r="59">
@@ -2250,14 +2250,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>19.83055555555556</v>
+        <v>129.5212314814815</v>
       </c>
       <c r="E59" t="n">
-        <v>18.92592592592593</v>
+        <v>60.95931481481481</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.9046296296296248</v>
+        <v>68.56191666666666</v>
       </c>
     </row>
     <row r="60">
@@ -2281,14 +2281,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>162.313888888889</v>
+        <v>16045.21368981482</v>
       </c>
       <c r="E60" t="n">
-        <v>151.0166666666667</v>
+        <v>9303.403685185185</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>11.29722222222227</v>
+        <v>6741.810004629631</v>
       </c>
     </row>
     <row r="61">
@@ -2312,208 +2312,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>162.2291296296296</v>
+        <v>8.935</v>
       </c>
       <c r="E61" t="n">
-        <v>151.2216944444444</v>
+        <v>9.131764705882354</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>11.00743518518519</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>PTTA</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>146.2106574074074</v>
-      </c>
-      <c r="E62" t="n">
-        <v>139.4710925925926</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>early &gt; late</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
-        <v>6.739564814814827</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>64.33179629629632</v>
-      </c>
-      <c r="E63" t="n">
-        <v>46.34986111111111</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>early &gt; late</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>17.98193518518521</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>129.5212314814815</v>
-      </c>
-      <c r="E64" t="n">
-        <v>60.95931481481481</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>early &gt; late</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
-        <v>68.56191666666666</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>16045.21368981482</v>
-      </c>
-      <c r="E65" t="n">
-        <v>9303.403685185185</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>early &gt; late</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
-        <v>6741.810004629631</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>8.935</v>
-      </c>
-      <c r="E66" t="n">
-        <v>9.131764705882354</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>late &gt; early</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
         <v>-0.1967647058823534</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>prepulse_intensity</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>24.11764705882353</v>
-      </c>
-      <c r="E67" t="n">
-        <v>24.11764705882353</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>late &gt; early</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Tester Results/TEST_REC_ORDER_DIRECTION.xlsx
+++ b/Tester Results/TEST_REC_ORDER_DIRECTION.xlsx
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11.71944444444444</v>
+        <v>11.74074074074074</v>
       </c>
       <c r="E2" t="n">
-        <v>11.27777777777778</v>
+        <v>11.27407407407407</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.4416666666666647</v>
+        <v>0.4666666666666668</v>
       </c>
     </row>
     <row r="3">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>30.05833333333333</v>
+        <v>30.06851851851852</v>
       </c>
       <c r="E3" t="n">
-        <v>30.65555555555556</v>
+        <v>30.62962962962963</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-0.5972222222222285</v>
+        <v>-0.5611111111111136</v>
       </c>
     </row>
     <row r="4">
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18.33888888888889</v>
+        <v>18.32777777777778</v>
       </c>
       <c r="E4" t="n">
-        <v>19.37777777777778</v>
+        <v>19.35555555555555</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-1.038888888888888</v>
+        <v>-1.027777777777779</v>
       </c>
     </row>
     <row r="5">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>61.32777777777778</v>
+        <v>61.25462962962963</v>
       </c>
       <c r="E5" t="n">
-        <v>67.20555555555556</v>
+        <v>67.47222222222223</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-5.87777777777778</v>
+        <v>-6.217592592592602</v>
       </c>
     </row>
     <row r="6">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>61.66654166666667</v>
+        <v>61.59118981481481</v>
       </c>
       <c r="E6" t="n">
-        <v>67.55897222222222</v>
+        <v>67.80563888888889</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-5.892430555555556</v>
+        <v>-6.214449074074082</v>
       </c>
     </row>
     <row r="7">
@@ -642,10 +642,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>55.79138888888888</v>
+        <v>55.98749537037038</v>
       </c>
       <c r="E7" t="n">
-        <v>59.03819444444444</v>
+        <v>59.19708333333332</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-3.246805555555561</v>
+        <v>-3.209587962962949</v>
       </c>
     </row>
     <row r="8">
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>23.81411111111111</v>
+        <v>23.7436712962963</v>
       </c>
       <c r="E8" t="n">
-        <v>27.45466666666666</v>
+        <v>27.705</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-3.640555555555551</v>
+        <v>-3.9613287037037</v>
       </c>
     </row>
     <row r="9">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>153.7516388888889</v>
+        <v>153.0003842592592</v>
       </c>
       <c r="E9" t="n">
-        <v>162.8410555555556</v>
+        <v>163.8527962962963</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>-9.089416666666665</v>
+        <v>-10.85241203703703</v>
       </c>
     </row>
     <row r="10">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6127.447361111112</v>
+        <v>6099.560782407407</v>
       </c>
       <c r="E10" t="n">
-        <v>7508.073027777777</v>
+        <v>7612.583185185184</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-1380.625666666665</v>
+        <v>-1513.022402777777</v>
       </c>
     </row>
     <row r="11">
@@ -797,10 +797,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10.48240740740741</v>
+        <v>10.54166666666667</v>
       </c>
       <c r="E12" t="n">
-        <v>9.459259259259261</v>
+        <v>9.405555555555555</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.023148148148147</v>
+        <v>1.136111111111111</v>
       </c>
     </row>
     <row r="13">
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>31.18055555555556</v>
+        <v>31.31296296296296</v>
       </c>
       <c r="E13" t="n">
-        <v>30.17777777777778</v>
+        <v>30.18333333333333</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.002777777777776</v>
+        <v>1.129629629629633</v>
       </c>
     </row>
     <row r="14">
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20.69814814814815</v>
+        <v>20.7712962962963</v>
       </c>
       <c r="E14" t="n">
-        <v>20.71851851851852</v>
+        <v>20.77777777777778</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-0.02037037037036882</v>
+        <v>-0.006481481481483087</v>
       </c>
     </row>
     <row r="15">
@@ -890,10 +890,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>102.475462962963</v>
+        <v>102.1337962962963</v>
       </c>
       <c r="E15" t="n">
-        <v>114.0638888888889</v>
+        <v>114.6388888888889</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-11.5884259259259</v>
+        <v>-12.50509259259259</v>
       </c>
     </row>
     <row r="16">
@@ -921,10 +921,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>102.1431574074074</v>
+        <v>101.7870601851852</v>
       </c>
       <c r="E16" t="n">
-        <v>114.2151944444444</v>
+        <v>114.7929444444444</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-12.07203703703703</v>
+        <v>-13.00588425925926</v>
       </c>
     </row>
     <row r="17">
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>92.38379629629632</v>
+        <v>91.94361574074075</v>
       </c>
       <c r="E17" t="n">
-        <v>100.4224537037037</v>
+        <v>100.9899722222222</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-8.038657407407385</v>
+        <v>-9.046356481481467</v>
       </c>
     </row>
     <row r="18">
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>42.57611111111111</v>
+        <v>42.35461574074074</v>
       </c>
       <c r="E18" t="n">
-        <v>48.37812962962963</v>
+        <v>48.72497222222222</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-5.802018518518516</v>
+        <v>-6.37035648148148</v>
       </c>
     </row>
     <row r="19">
@@ -1014,10 +1014,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>150.8274537037037</v>
+        <v>149.4343055555556</v>
       </c>
       <c r="E19" t="n">
-        <v>176.8305740740741</v>
+        <v>177.2313055555555</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-26.00312037037034</v>
+        <v>-27.79699999999994</v>
       </c>
     </row>
     <row r="20">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>11873.96275462963</v>
+        <v>11796.4105787037</v>
       </c>
       <c r="E20" t="n">
-        <v>14621.79834259259</v>
+        <v>14732.97852777778</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-2747.835587962965</v>
+        <v>-2936.567949074073</v>
       </c>
     </row>
     <row r="21">
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>10.92592592592593</v>
+        <v>10.95740740740741</v>
       </c>
       <c r="E22" t="n">
-        <v>10.32407407407407</v>
+        <v>10.28333333333333</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.601851851851853</v>
+        <v>0.674074074074074</v>
       </c>
     </row>
     <row r="23">
@@ -1138,10 +1138,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>30.8962962962963</v>
+        <v>30.80277777777778</v>
       </c>
       <c r="E23" t="n">
-        <v>31.63518518518518</v>
+        <v>31.44259259259259</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>-0.7388888888888872</v>
+        <v>-0.6398148148148124</v>
       </c>
     </row>
     <row r="24">
@@ -1169,10 +1169,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>19.97037037037037</v>
+        <v>19.84537037037037</v>
       </c>
       <c r="E24" t="n">
-        <v>21.31111111111111</v>
+        <v>21.15925925925926</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>-1.340740740740742</v>
+        <v>-1.31388888888889</v>
       </c>
     </row>
     <row r="25">
@@ -1200,10 +1200,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>93.23935185185184</v>
+        <v>92.78333333333333</v>
       </c>
       <c r="E25" t="n">
-        <v>99.12037037037038</v>
+        <v>97.59537037037038</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>-5.881018518518545</v>
+        <v>-4.812037037037044</v>
       </c>
     </row>
     <row r="26">
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>93.27347685185185</v>
+        <v>92.81281944444446</v>
       </c>
       <c r="E26" t="n">
-        <v>99.34892592592593</v>
+        <v>97.83666666666667</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>-6.075449074074072</v>
+        <v>-5.023847222222216</v>
       </c>
     </row>
     <row r="27">
@@ -1262,10 +1262,10 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>84.70534259259259</v>
+        <v>84.17148611111111</v>
       </c>
       <c r="E27" t="n">
-        <v>88.98518518518517</v>
+        <v>87.62231481481481</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>-4.279842592592587</v>
+        <v>-3.450828703703706</v>
       </c>
     </row>
     <row r="28">
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>36.98715740740741</v>
+        <v>36.87494444444445</v>
       </c>
       <c r="E28" t="n">
-        <v>40.64285185185185</v>
+        <v>39.82542592592593</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>-3.655694444444443</v>
+        <v>-2.950481481481475</v>
       </c>
     </row>
     <row r="29">
@@ -1324,10 +1324,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>162.8949814814815</v>
+        <v>162.9889537037037</v>
       </c>
       <c r="E29" t="n">
-        <v>145.1042222222222</v>
+        <v>143.6508148148148</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>17.79075925925926</v>
+        <v>19.33813888888889</v>
       </c>
     </row>
     <row r="30">
@@ -1355,10 +1355,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>9641.93787037037</v>
+        <v>9629.678046296296</v>
       </c>
       <c r="E30" t="n">
-        <v>10822.44786111111</v>
+        <v>10593.61003703704</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>-1180.509990740742</v>
+        <v>-963.9319907407407</v>
       </c>
     </row>
     <row r="31">
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10.60555555555556</v>
+        <v>10.63240740740741</v>
       </c>
       <c r="E32" t="n">
-        <v>10.36666666666667</v>
+        <v>10.37777777777778</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.2388888888888889</v>
+        <v>0.2546296296296298</v>
       </c>
     </row>
     <row r="33">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>31.11296296296296</v>
+        <v>30.84907407407407</v>
       </c>
       <c r="E33" t="n">
-        <v>30.74814814814815</v>
+        <v>30.44259259259259</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.3648148148148103</v>
+        <v>0.4064814814814781</v>
       </c>
     </row>
     <row r="34">
@@ -1479,10 +1479,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>20.50740740740741</v>
+        <v>20.21666666666667</v>
       </c>
       <c r="E34" t="n">
-        <v>20.38148148148148</v>
+        <v>20.06481481481482</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.1259259259259267</v>
+        <v>0.1518518518518519</v>
       </c>
     </row>
     <row r="35">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>133.5893518518519</v>
+        <v>132.6958333333334</v>
       </c>
       <c r="E35" t="n">
-        <v>105.9212962962963</v>
+        <v>104.7324074074074</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>27.66805555555555</v>
+        <v>27.96342592592595</v>
       </c>
     </row>
     <row r="36">
@@ -1541,10 +1541,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>132.6956898148148</v>
+        <v>131.7293703703704</v>
       </c>
       <c r="E36" t="n">
-        <v>106.0883518518519</v>
+        <v>104.9064351851852</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>26.60733796296294</v>
+        <v>26.8229351851852</v>
       </c>
     </row>
     <row r="37">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>119.6044166666667</v>
+        <v>118.3971805555555</v>
       </c>
       <c r="E37" t="n">
-        <v>97.25192592592593</v>
+        <v>96.13342592592592</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>22.35249074074073</v>
+        <v>22.2637546296296</v>
       </c>
     </row>
     <row r="38">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>54.8997314814815</v>
+        <v>54.54544907407408</v>
       </c>
       <c r="E38" t="n">
-        <v>40.78643518518518</v>
+        <v>40.19326851851852</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>14.11329629629631</v>
+        <v>14.35218055555556</v>
       </c>
     </row>
     <row r="39">
@@ -1634,10 +1634,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>144.3176712962963</v>
+        <v>145.7235185185185</v>
       </c>
       <c r="E39" t="n">
-        <v>116.863537037037</v>
+        <v>117.0173981481482</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>27.45413425925926</v>
+        <v>28.70612037037036</v>
       </c>
     </row>
     <row r="40">
@@ -1665,10 +1665,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>13976.09596759259</v>
+        <v>13939.15581481481</v>
       </c>
       <c r="E40" t="n">
-        <v>9238.73998148148</v>
+        <v>9157.268592592593</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4737.355986111112</v>
+        <v>4781.887222222222</v>
       </c>
     </row>
     <row r="41">
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>10.01111111111111</v>
+        <v>10.00185185185185</v>
       </c>
       <c r="E42" t="n">
         <v>11.23148148148148</v>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>-1.22037037037037</v>
+        <v>-1.229629629629631</v>
       </c>
     </row>
     <row r="43">
@@ -1758,10 +1758,10 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>31.95</v>
+        <v>31.78333333333333</v>
       </c>
       <c r="E43" t="n">
-        <v>26.13703703703704</v>
+        <v>26.05185185185185</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5.812962962962967</v>
+        <v>5.731481481481485</v>
       </c>
     </row>
     <row r="44">
@@ -1789,10 +1789,10 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>21.93888888888889</v>
+        <v>21.78148148148148</v>
       </c>
       <c r="E44" t="n">
-        <v>14.90555555555555</v>
+        <v>14.82037037037037</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>7.033333333333337</v>
+        <v>6.961111111111112</v>
       </c>
     </row>
     <row r="45">
@@ -1820,10 +1820,10 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>234.2064814814815</v>
+        <v>232.8597222222222</v>
       </c>
       <c r="E45" t="n">
-        <v>99.17129629629629</v>
+        <v>96.87777777777779</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>135.0351851851852</v>
+        <v>135.9819444444444</v>
       </c>
     </row>
     <row r="46">
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>233.2948935185185</v>
+        <v>232.11825</v>
       </c>
       <c r="E46" t="n">
-        <v>99.44838888888889</v>
+        <v>97.15475925925927</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>133.8465046296296</v>
+        <v>134.9634907407407</v>
       </c>
     </row>
     <row r="47">
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>210.2894305555556</v>
+        <v>208.3816388888889</v>
       </c>
       <c r="E47" t="n">
-        <v>90.20940740740741</v>
+        <v>88.11875000000001</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>120.0800231481481</v>
+        <v>120.2628888888889</v>
       </c>
     </row>
     <row r="48">
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>89.77529629629629</v>
+        <v>89.25588425925926</v>
       </c>
       <c r="E48" t="n">
-        <v>36.2442037037037</v>
+        <v>35.69441666666667</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>53.53109259259259</v>
+        <v>53.56146759259259</v>
       </c>
     </row>
     <row r="49">
@@ -1944,10 +1944,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>116.7894490740741</v>
+        <v>117.7934027777778</v>
       </c>
       <c r="E49" t="n">
-        <v>117.0621759259259</v>
+        <v>119.8397685185185</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>-0.2727268518518429</v>
+        <v>-2.04636574074074</v>
       </c>
     </row>
     <row r="50">
@@ -1975,10 +1975,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>21756.63385648148</v>
+        <v>21703.35140277777</v>
       </c>
       <c r="E50" t="n">
-        <v>8837.139092592592</v>
+        <v>8859.991944444444</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>12919.49476388889</v>
+        <v>12843.35945833333</v>
       </c>
     </row>
     <row r="51">
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>10.46018518518519</v>
+        <v>10.52962962962963</v>
       </c>
       <c r="E52" t="n">
-        <v>10</v>
+        <v>9.994444444444444</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.4601851851851855</v>
+        <v>0.5351851851851883</v>
       </c>
     </row>
     <row r="53">
@@ -2068,10 +2068,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30.29074074074075</v>
+        <v>30.25370370370371</v>
       </c>
       <c r="E53" t="n">
-        <v>28.92592592592592</v>
+        <v>28.71111111111111</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.364814814814824</v>
+        <v>1.542592592592598</v>
       </c>
     </row>
     <row r="54">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>19.83055555555556</v>
+        <v>19.72407407407407</v>
       </c>
       <c r="E54" t="n">
-        <v>18.92592592592593</v>
+        <v>18.71666666666667</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.9046296296296248</v>
+        <v>1.007407407407406</v>
       </c>
     </row>
     <row r="55">
@@ -2130,10 +2130,10 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>162.313888888889</v>
+        <v>161.6726851851852</v>
       </c>
       <c r="E55" t="n">
-        <v>151.0166666666667</v>
+        <v>148.0712962962963</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>11.29722222222227</v>
+        <v>13.60138888888895</v>
       </c>
     </row>
     <row r="56">
@@ -2161,10 +2161,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>162.2291296296296</v>
+        <v>161.5941527777778</v>
       </c>
       <c r="E56" t="n">
-        <v>151.2216944444444</v>
+        <v>148.2752222222222</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>11.00743518518519</v>
+        <v>13.31893055555554</v>
       </c>
     </row>
     <row r="57">
@@ -2192,10 +2192,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>146.2106574074074</v>
+        <v>145.8551018518518</v>
       </c>
       <c r="E57" t="n">
-        <v>139.4710925925926</v>
+        <v>136.7262222222222</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>6.739564814814827</v>
+        <v>9.128879629629637</v>
       </c>
     </row>
     <row r="58">
@@ -2223,10 +2223,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>64.33179629629632</v>
+        <v>64.03973611111113</v>
       </c>
       <c r="E58" t="n">
-        <v>46.34986111111111</v>
+        <v>45.42023148148148</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>17.98193518518521</v>
+        <v>18.61950462962965</v>
       </c>
     </row>
     <row r="59">
@@ -2254,10 +2254,10 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>129.5212314814815</v>
+        <v>129.3883611111111</v>
       </c>
       <c r="E59" t="n">
-        <v>60.95931481481481</v>
+        <v>62.91313888888888</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>68.56191666666666</v>
+        <v>66.47522222222221</v>
       </c>
     </row>
     <row r="60">
@@ -2285,10 +2285,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>16045.21368981482</v>
+        <v>15967.93112037037</v>
       </c>
       <c r="E60" t="n">
-        <v>9303.403685185185</v>
+        <v>9208.361268518518</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>6741.810004629631</v>
+        <v>6759.569851851855</v>
       </c>
     </row>
     <row r="61">

--- a/Tester Results/TEST_REC_ORDER_DIRECTION.xlsx
+++ b/Tester Results/TEST_REC_ORDER_DIRECTION.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -514,7 +514,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -545,7 +545,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -576,7 +576,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -607,7 +607,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -638,7 +638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -669,7 +669,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -700,7 +700,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -731,7 +731,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -757,19 +757,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10.435</v>
+        <v>10.54166666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>6.538235294117648</v>
+        <v>9.405555555555555</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.896764705882351</v>
+        <v>1.136111111111111</v>
       </c>
     </row>
     <row r="12">
@@ -793,14 +793,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10.54166666666667</v>
+        <v>31.31296296296296</v>
       </c>
       <c r="E12" t="n">
-        <v>9.405555555555555</v>
+        <v>30.18333333333333</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.136111111111111</v>
+        <v>1.129629629629633</v>
       </c>
     </row>
     <row r="13">
@@ -824,22 +824,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>31.31296296296296</v>
+        <v>20.7712962962963</v>
       </c>
       <c r="E13" t="n">
-        <v>30.18333333333333</v>
+        <v>20.77777777777778</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.129629629629633</v>
+        <v>-0.006481481481483087</v>
       </c>
     </row>
     <row r="14">
@@ -855,14 +855,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20.7712962962963</v>
+        <v>102.1337962962963</v>
       </c>
       <c r="E14" t="n">
-        <v>20.77777777777778</v>
+        <v>114.6388888888889</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-0.006481481481483087</v>
+        <v>-12.50509259259259</v>
       </c>
     </row>
     <row r="15">
@@ -886,14 +886,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>102.1337962962963</v>
+        <v>101.7870601851852</v>
       </c>
       <c r="E15" t="n">
-        <v>114.6388888888889</v>
+        <v>114.7929444444444</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-12.50509259259259</v>
+        <v>-13.00588425925926</v>
       </c>
     </row>
     <row r="16">
@@ -917,14 +917,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>101.7870601851852</v>
+        <v>91.94361574074075</v>
       </c>
       <c r="E16" t="n">
-        <v>114.7929444444444</v>
+        <v>100.9899722222222</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-13.00588425925926</v>
+        <v>-9.046356481481467</v>
       </c>
     </row>
     <row r="17">
@@ -948,14 +948,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>91.94361574074075</v>
+        <v>42.35461574074074</v>
       </c>
       <c r="E17" t="n">
-        <v>100.9899722222222</v>
+        <v>48.72497222222222</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-9.046356481481467</v>
+        <v>-6.37035648148148</v>
       </c>
     </row>
     <row r="18">
@@ -979,14 +979,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>42.35461574074074</v>
+        <v>149.4343055555556</v>
       </c>
       <c r="E18" t="n">
-        <v>48.72497222222222</v>
+        <v>177.2313055555555</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-6.37035648148148</v>
+        <v>-27.79699999999994</v>
       </c>
     </row>
     <row r="19">
@@ -1010,14 +1010,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>149.4343055555556</v>
+        <v>11796.4105787037</v>
       </c>
       <c r="E19" t="n">
-        <v>177.2313055555555</v>
+        <v>14732.97852777778</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-27.79699999999994</v>
+        <v>-2936.567949074073</v>
       </c>
     </row>
     <row r="20">
@@ -1036,27 +1036,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>11796.4105787037</v>
+        <v>10.95740740740741</v>
       </c>
       <c r="E20" t="n">
-        <v>14732.97852777778</v>
+        <v>10.28333333333333</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-2936.567949074073</v>
+        <v>0.674074074074074</v>
       </c>
     </row>
     <row r="21">
@@ -1067,27 +1067,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10.435</v>
+        <v>30.80277777777778</v>
       </c>
       <c r="E21" t="n">
-        <v>6.538235294117648</v>
+        <v>31.44259259259259</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.896764705882351</v>
+        <v>-0.6398148148148124</v>
       </c>
     </row>
     <row r="22">
@@ -1103,22 +1103,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>10.95740740740741</v>
+        <v>19.84537037037037</v>
       </c>
       <c r="E22" t="n">
-        <v>10.28333333333333</v>
+        <v>21.15925925925926</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.674074074074074</v>
+        <v>-1.31388888888889</v>
       </c>
     </row>
     <row r="23">
@@ -1134,14 +1134,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>30.80277777777778</v>
+        <v>92.78333333333333</v>
       </c>
       <c r="E23" t="n">
-        <v>31.44259259259259</v>
+        <v>97.59537037037038</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>-0.6398148148148124</v>
+        <v>-4.812037037037044</v>
       </c>
     </row>
     <row r="24">
@@ -1165,14 +1165,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>19.84537037037037</v>
+        <v>92.81281944444446</v>
       </c>
       <c r="E24" t="n">
-        <v>21.15925925925926</v>
+        <v>97.83666666666667</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>-1.31388888888889</v>
+        <v>-5.023847222222216</v>
       </c>
     </row>
     <row r="25">
@@ -1196,14 +1196,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>92.78333333333333</v>
+        <v>84.17148611111111</v>
       </c>
       <c r="E25" t="n">
-        <v>97.59537037037038</v>
+        <v>87.62231481481481</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>-4.812037037037044</v>
+        <v>-3.450828703703706</v>
       </c>
     </row>
     <row r="26">
@@ -1227,14 +1227,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>92.81281944444446</v>
+        <v>36.87494444444445</v>
       </c>
       <c r="E26" t="n">
-        <v>97.83666666666667</v>
+        <v>39.82542592592593</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>-5.023847222222216</v>
+        <v>-2.950481481481475</v>
       </c>
     </row>
     <row r="27">
@@ -1258,22 +1258,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>84.17148611111111</v>
+        <v>162.9889537037037</v>
       </c>
       <c r="E27" t="n">
-        <v>87.62231481481481</v>
+        <v>143.6508148148148</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>-3.450828703703706</v>
+        <v>19.33813888888889</v>
       </c>
     </row>
     <row r="28">
@@ -1289,14 +1289,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>36.87494444444445</v>
+        <v>9629.678046296296</v>
       </c>
       <c r="E28" t="n">
-        <v>39.82542592592593</v>
+        <v>10593.61003703704</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1304,30 +1304,30 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>-2.950481481481475</v>
+        <v>-963.9319907407407</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>162.9889537037037</v>
+        <v>10.63240740740741</v>
       </c>
       <c r="E29" t="n">
-        <v>143.6508148148148</v>
+        <v>10.37777777777778</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1335,61 +1335,61 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>19.33813888888889</v>
+        <v>0.2546296296296298</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>9629.678046296296</v>
+        <v>30.84907407407407</v>
       </c>
       <c r="E30" t="n">
-        <v>10593.61003703704</v>
+        <v>30.44259259259259</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>-963.9319907407407</v>
+        <v>0.4064814814814781</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>10.435</v>
+        <v>20.21666666666667</v>
       </c>
       <c r="E31" t="n">
-        <v>6.538235294117648</v>
+        <v>20.06481481481482</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.896764705882351</v>
+        <v>0.1518518518518519</v>
       </c>
     </row>
     <row r="32">
@@ -1413,14 +1413,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10.63240740740741</v>
+        <v>132.6958333333334</v>
       </c>
       <c r="E32" t="n">
-        <v>10.37777777777778</v>
+        <v>104.7324074074074</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.2546296296296298</v>
+        <v>27.96342592592595</v>
       </c>
     </row>
     <row r="33">
@@ -1444,14 +1444,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>30.84907407407407</v>
+        <v>131.7293703703704</v>
       </c>
       <c r="E33" t="n">
-        <v>30.44259259259259</v>
+        <v>104.9064351851852</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.4064814814814781</v>
+        <v>26.8229351851852</v>
       </c>
     </row>
     <row r="34">
@@ -1475,14 +1475,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>20.21666666666667</v>
+        <v>118.3971805555555</v>
       </c>
       <c r="E34" t="n">
-        <v>20.06481481481482</v>
+        <v>96.13342592592592</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.1518518518518519</v>
+        <v>22.2637546296296</v>
       </c>
     </row>
     <row r="35">
@@ -1506,14 +1506,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>132.6958333333334</v>
+        <v>54.54544907407408</v>
       </c>
       <c r="E35" t="n">
-        <v>104.7324074074074</v>
+        <v>40.19326851851852</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>27.96342592592595</v>
+        <v>14.35218055555556</v>
       </c>
     </row>
     <row r="36">
@@ -1537,14 +1537,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>131.7293703703704</v>
+        <v>145.7235185185185</v>
       </c>
       <c r="E36" t="n">
-        <v>104.9064351851852</v>
+        <v>117.0173981481482</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>26.8229351851852</v>
+        <v>28.70612037037036</v>
       </c>
     </row>
     <row r="37">
@@ -1568,14 +1568,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>118.3971805555555</v>
+        <v>13939.15581481481</v>
       </c>
       <c r="E37" t="n">
-        <v>96.13342592592592</v>
+        <v>9157.268592592593</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>22.2637546296296</v>
+        <v>4781.887222222222</v>
       </c>
     </row>
     <row r="38">
@@ -1594,27 +1594,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>54.54544907407408</v>
+        <v>10.00185185185185</v>
       </c>
       <c r="E38" t="n">
-        <v>40.19326851851852</v>
+        <v>11.23148148148148</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>14.35218055555556</v>
+        <v>-1.229629629629631</v>
       </c>
     </row>
     <row r="39">
@@ -1625,19 +1625,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>145.7235185185185</v>
+        <v>31.78333333333333</v>
       </c>
       <c r="E39" t="n">
-        <v>117.0173981481482</v>
+        <v>26.05185185185185</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>28.70612037037036</v>
+        <v>5.731481481481485</v>
       </c>
     </row>
     <row r="40">
@@ -1656,19 +1656,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>13939.15581481481</v>
+        <v>21.78148148148148</v>
       </c>
       <c r="E40" t="n">
-        <v>9157.268592592593</v>
+        <v>14.82037037037037</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4781.887222222222</v>
+        <v>6.961111111111112</v>
       </c>
     </row>
     <row r="41">
@@ -1687,27 +1687,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>8.935</v>
+        <v>232.8597222222222</v>
       </c>
       <c r="E41" t="n">
-        <v>9.131764705882354</v>
+        <v>96.87777777777779</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>-0.1967647058823534</v>
+        <v>135.9819444444444</v>
       </c>
     </row>
     <row r="42">
@@ -1723,22 +1723,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>10.00185185185185</v>
+        <v>232.11825</v>
       </c>
       <c r="E42" t="n">
-        <v>11.23148148148148</v>
+        <v>97.15475925925927</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>-1.229629629629631</v>
+        <v>134.9634907407407</v>
       </c>
     </row>
     <row r="43">
@@ -1754,14 +1754,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>31.78333333333333</v>
+        <v>208.3816388888889</v>
       </c>
       <c r="E43" t="n">
-        <v>26.05185185185185</v>
+        <v>88.11875000000001</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5.731481481481485</v>
+        <v>120.2628888888889</v>
       </c>
     </row>
     <row r="44">
@@ -1785,14 +1785,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>21.78148148148148</v>
+        <v>89.25588425925926</v>
       </c>
       <c r="E44" t="n">
-        <v>14.82037037037037</v>
+        <v>35.69441666666667</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>6.961111111111112</v>
+        <v>53.56146759259259</v>
       </c>
     </row>
     <row r="45">
@@ -1816,22 +1816,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>232.8597222222222</v>
+        <v>117.7934027777778</v>
       </c>
       <c r="E45" t="n">
-        <v>96.87777777777779</v>
+        <v>119.8397685185185</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>135.9819444444444</v>
+        <v>-2.04636574074074</v>
       </c>
     </row>
     <row r="46">
@@ -1847,14 +1847,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>232.11825</v>
+        <v>21703.35140277777</v>
       </c>
       <c r="E46" t="n">
-        <v>97.15475925925927</v>
+        <v>8859.991944444444</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>134.9634907407407</v>
+        <v>12843.35945833333</v>
       </c>
     </row>
     <row r="47">
@@ -1873,19 +1873,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>208.3816388888889</v>
+        <v>10.52962962962963</v>
       </c>
       <c r="E47" t="n">
-        <v>88.11875000000001</v>
+        <v>9.994444444444444</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>120.2628888888889</v>
+        <v>0.5351851851851883</v>
       </c>
     </row>
     <row r="48">
@@ -1904,19 +1904,19 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>89.25588425925926</v>
+        <v>30.25370370370371</v>
       </c>
       <c r="E48" t="n">
-        <v>35.69441666666667</v>
+        <v>28.71111111111111</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>53.56146759259259</v>
+        <v>1.542592592592598</v>
       </c>
     </row>
     <row r="49">
@@ -1935,27 +1935,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>117.7934027777778</v>
+        <v>19.72407407407407</v>
       </c>
       <c r="E49" t="n">
-        <v>119.8397685185185</v>
+        <v>18.71666666666667</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>-2.04636574074074</v>
+        <v>1.007407407407406</v>
       </c>
     </row>
     <row r="50">
@@ -1966,19 +1966,19 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>21703.35140277777</v>
+        <v>161.6726851851852</v>
       </c>
       <c r="E50" t="n">
-        <v>8859.991944444444</v>
+        <v>148.0712962962963</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>12843.35945833333</v>
+        <v>13.60138888888895</v>
       </c>
     </row>
     <row r="51">
@@ -1997,27 +1997,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>8.935</v>
+        <v>161.5941527777778</v>
       </c>
       <c r="E51" t="n">
-        <v>9.131764705882354</v>
+        <v>148.2752222222222</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>-0.1967647058823534</v>
+        <v>13.31893055555554</v>
       </c>
     </row>
     <row r="52">
@@ -2033,14 +2033,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>10.52962962962963</v>
+        <v>145.8551018518518</v>
       </c>
       <c r="E52" t="n">
-        <v>9.994444444444444</v>
+        <v>136.7262222222222</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.5351851851851883</v>
+        <v>9.128879629629637</v>
       </c>
     </row>
     <row r="53">
@@ -2064,14 +2064,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30.25370370370371</v>
+        <v>64.03973611111113</v>
       </c>
       <c r="E53" t="n">
-        <v>28.71111111111111</v>
+        <v>45.42023148148148</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.542592592592598</v>
+        <v>18.61950462962965</v>
       </c>
     </row>
     <row r="54">
@@ -2095,14 +2095,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>19.72407407407407</v>
+        <v>129.3883611111111</v>
       </c>
       <c r="E54" t="n">
-        <v>18.71666666666667</v>
+        <v>62.91313888888888</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.007407407407406</v>
+        <v>66.47522222222221</v>
       </c>
     </row>
     <row r="55">
@@ -2126,14 +2126,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>161.6726851851852</v>
+        <v>15967.93112037037</v>
       </c>
       <c r="E55" t="n">
-        <v>148.0712962962963</v>
+        <v>9208.361268518518</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2141,193 +2141,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>13.60138888888895</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>161.5941527777778</v>
-      </c>
-      <c r="E56" t="n">
-        <v>148.2752222222222</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>early &gt; late</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
-        <v>13.31893055555554</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>145.8551018518518</v>
-      </c>
-      <c r="E57" t="n">
-        <v>136.7262222222222</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>early &gt; late</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
-        <v>9.128879629629637</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>64.03973611111113</v>
-      </c>
-      <c r="E58" t="n">
-        <v>45.42023148148148</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>early &gt; late</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
-        <v>18.61950462962965</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>129.3883611111111</v>
-      </c>
-      <c r="E59" t="n">
-        <v>62.91313888888888</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>early &gt; late</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
-        <v>66.47522222222221</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>15967.93112037037</v>
-      </c>
-      <c r="E60" t="n">
-        <v>9208.361268518518</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>early &gt; late</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
         <v>6759.569851851855</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>8.935</v>
-      </c>
-      <c r="E61" t="n">
-        <v>9.131764705882354</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>late &gt; early</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>-0.1967647058823534</v>
       </c>
     </row>
   </sheetData>

--- a/Tester Results/TEST_REC_ORDER_DIRECTION.xlsx
+++ b/Tester Results/TEST_REC_ORDER_DIRECTION.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -514,7 +514,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -545,7 +545,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -576,7 +576,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -607,7 +607,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -638,7 +638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -669,7 +669,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -700,7 +700,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -731,7 +731,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -762,7 +762,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -793,7 +793,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -824,7 +824,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -855,7 +855,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -886,7 +886,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -917,7 +917,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -948,7 +948,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -2064,7 +2064,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D55" t="n">

--- a/Tester Results/TEST_REC_ORDER_DIRECTION.xlsx
+++ b/Tester Results/TEST_REC_ORDER_DIRECTION.xlsx
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11.74074074074074</v>
+        <v>11.71944444444444</v>
       </c>
       <c r="E2" t="n">
-        <v>11.27407407407407</v>
+        <v>11.27777777777778</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.4666666666666668</v>
+        <v>0.4416666666666647</v>
       </c>
     </row>
     <row r="3">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>30.06851851851852</v>
+        <v>30.05833333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>30.62962962962963</v>
+        <v>30.65555555555556</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-0.5611111111111136</v>
+        <v>-0.5972222222222285</v>
       </c>
     </row>
     <row r="4">
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18.32777777777778</v>
+        <v>18.33888888888889</v>
       </c>
       <c r="E4" t="n">
-        <v>19.35555555555555</v>
+        <v>19.37777777777778</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-1.027777777777779</v>
+        <v>-1.038888888888888</v>
       </c>
     </row>
     <row r="5">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>61.25462962962963</v>
+        <v>61.32777777777778</v>
       </c>
       <c r="E5" t="n">
-        <v>67.47222222222223</v>
+        <v>67.20555555555556</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-6.217592592592602</v>
+        <v>-5.87777777777778</v>
       </c>
     </row>
     <row r="6">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>61.59118981481481</v>
+        <v>61.66654166666667</v>
       </c>
       <c r="E6" t="n">
-        <v>67.80563888888889</v>
+        <v>67.55897222222222</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-6.214449074074082</v>
+        <v>-5.892430555555556</v>
       </c>
     </row>
     <row r="7">
@@ -642,10 +642,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>55.98749537037038</v>
+        <v>55.79138888888888</v>
       </c>
       <c r="E7" t="n">
-        <v>59.19708333333332</v>
+        <v>59.03819444444444</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-3.209587962962949</v>
+        <v>-3.246805555555561</v>
       </c>
     </row>
     <row r="8">
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>23.7436712962963</v>
+        <v>23.81411111111111</v>
       </c>
       <c r="E8" t="n">
-        <v>27.705</v>
+        <v>27.45466666666666</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-3.9613287037037</v>
+        <v>-3.640555555555551</v>
       </c>
     </row>
     <row r="9">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>153.0003842592592</v>
+        <v>153.7516388888889</v>
       </c>
       <c r="E9" t="n">
-        <v>163.8527962962963</v>
+        <v>162.8410555555556</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>-10.85241203703703</v>
+        <v>-9.089416666666665</v>
       </c>
     </row>
     <row r="10">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6099.560782407407</v>
+        <v>6127.447361111112</v>
       </c>
       <c r="E10" t="n">
-        <v>7612.583185185184</v>
+        <v>7508.073027777777</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-1513.022402777777</v>
+        <v>-1380.625666666665</v>
       </c>
     </row>
     <row r="11">
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10.54166666666667</v>
+        <v>10.48240740740741</v>
       </c>
       <c r="E11" t="n">
-        <v>9.405555555555555</v>
+        <v>9.459259259259261</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.136111111111111</v>
+        <v>1.023148148148147</v>
       </c>
     </row>
     <row r="12">
@@ -797,10 +797,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>31.31296296296296</v>
+        <v>31.18055555555556</v>
       </c>
       <c r="E12" t="n">
-        <v>30.18333333333333</v>
+        <v>30.17777777777778</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.129629629629633</v>
+        <v>1.002777777777776</v>
       </c>
     </row>
     <row r="13">
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>20.7712962962963</v>
+        <v>20.69814814814815</v>
       </c>
       <c r="E13" t="n">
-        <v>20.77777777777778</v>
+        <v>20.71851851851852</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-0.006481481481483087</v>
+        <v>-0.02037037037036882</v>
       </c>
     </row>
     <row r="14">
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>102.1337962962963</v>
+        <v>102.475462962963</v>
       </c>
       <c r="E14" t="n">
-        <v>114.6388888888889</v>
+        <v>114.0638888888889</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-12.50509259259259</v>
+        <v>-11.5884259259259</v>
       </c>
     </row>
     <row r="15">
@@ -890,10 +890,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>101.7870601851852</v>
+        <v>102.1431574074074</v>
       </c>
       <c r="E15" t="n">
-        <v>114.7929444444444</v>
+        <v>114.2151944444444</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-13.00588425925926</v>
+        <v>-12.07203703703703</v>
       </c>
     </row>
     <row r="16">
@@ -921,10 +921,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>91.94361574074075</v>
+        <v>92.38379629629632</v>
       </c>
       <c r="E16" t="n">
-        <v>100.9899722222222</v>
+        <v>100.4224537037037</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-9.046356481481467</v>
+        <v>-8.038657407407385</v>
       </c>
     </row>
     <row r="17">
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>42.35461574074074</v>
+        <v>42.57611111111111</v>
       </c>
       <c r="E17" t="n">
-        <v>48.72497222222222</v>
+        <v>48.37812962962963</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-6.37035648148148</v>
+        <v>-5.802018518518516</v>
       </c>
     </row>
     <row r="18">
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>149.4343055555556</v>
+        <v>150.8274537037037</v>
       </c>
       <c r="E18" t="n">
-        <v>177.2313055555555</v>
+        <v>176.8305740740741</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-27.79699999999994</v>
+        <v>-26.00312037037034</v>
       </c>
     </row>
     <row r="19">
@@ -1014,10 +1014,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>11796.4105787037</v>
+        <v>11873.96275462963</v>
       </c>
       <c r="E19" t="n">
-        <v>14732.97852777778</v>
+        <v>14621.79834259259</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-2936.567949074073</v>
+        <v>-2747.835587962965</v>
       </c>
     </row>
     <row r="20">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10.95740740740741</v>
+        <v>10.92592592592593</v>
       </c>
       <c r="E20" t="n">
-        <v>10.28333333333333</v>
+        <v>10.32407407407407</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.674074074074074</v>
+        <v>0.601851851851853</v>
       </c>
     </row>
     <row r="21">
@@ -1076,10 +1076,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30.80277777777778</v>
+        <v>30.8962962962963</v>
       </c>
       <c r="E21" t="n">
-        <v>31.44259259259259</v>
+        <v>31.63518518518518</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>-0.6398148148148124</v>
+        <v>-0.7388888888888872</v>
       </c>
     </row>
     <row r="22">
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>19.84537037037037</v>
+        <v>19.97037037037037</v>
       </c>
       <c r="E22" t="n">
-        <v>21.15925925925926</v>
+        <v>21.31111111111111</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>-1.31388888888889</v>
+        <v>-1.340740740740742</v>
       </c>
     </row>
     <row r="23">
@@ -1138,10 +1138,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>92.78333333333333</v>
+        <v>93.23935185185184</v>
       </c>
       <c r="E23" t="n">
-        <v>97.59537037037038</v>
+        <v>99.12037037037038</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>-4.812037037037044</v>
+        <v>-5.881018518518545</v>
       </c>
     </row>
     <row r="24">
@@ -1169,10 +1169,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>92.81281944444446</v>
+        <v>93.27347685185185</v>
       </c>
       <c r="E24" t="n">
-        <v>97.83666666666667</v>
+        <v>99.34892592592593</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>-5.023847222222216</v>
+        <v>-6.075449074074072</v>
       </c>
     </row>
     <row r="25">
@@ -1200,10 +1200,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>84.17148611111111</v>
+        <v>84.70534259259259</v>
       </c>
       <c r="E25" t="n">
-        <v>87.62231481481481</v>
+        <v>88.98518518518517</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>-3.450828703703706</v>
+        <v>-4.279842592592587</v>
       </c>
     </row>
     <row r="26">
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>36.87494444444445</v>
+        <v>36.98715740740741</v>
       </c>
       <c r="E26" t="n">
-        <v>39.82542592592593</v>
+        <v>40.64285185185185</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>-2.950481481481475</v>
+        <v>-3.655694444444443</v>
       </c>
     </row>
     <row r="27">
@@ -1262,10 +1262,10 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>162.9889537037037</v>
+        <v>162.8949814814815</v>
       </c>
       <c r="E27" t="n">
-        <v>143.6508148148148</v>
+        <v>145.1042222222222</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>19.33813888888889</v>
+        <v>17.79075925925926</v>
       </c>
     </row>
     <row r="28">
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>9629.678046296296</v>
+        <v>9641.93787037037</v>
       </c>
       <c r="E28" t="n">
-        <v>10593.61003703704</v>
+        <v>10822.44786111111</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>-963.9319907407407</v>
+        <v>-1180.509990740742</v>
       </c>
     </row>
     <row r="29">
@@ -1324,10 +1324,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>10.63240740740741</v>
+        <v>10.60555555555556</v>
       </c>
       <c r="E29" t="n">
-        <v>10.37777777777778</v>
+        <v>10.36666666666667</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.2546296296296298</v>
+        <v>0.2388888888888889</v>
       </c>
     </row>
     <row r="30">
@@ -1355,10 +1355,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>30.84907407407407</v>
+        <v>31.11296296296296</v>
       </c>
       <c r="E30" t="n">
-        <v>30.44259259259259</v>
+        <v>30.74814814814815</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.4064814814814781</v>
+        <v>0.3648148148148103</v>
       </c>
     </row>
     <row r="31">
@@ -1386,10 +1386,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>20.21666666666667</v>
+        <v>20.50740740740741</v>
       </c>
       <c r="E31" t="n">
-        <v>20.06481481481482</v>
+        <v>20.38148148148148</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.1518518518518519</v>
+        <v>0.1259259259259267</v>
       </c>
     </row>
     <row r="32">
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>132.6958333333334</v>
+        <v>133.5893518518519</v>
       </c>
       <c r="E32" t="n">
-        <v>104.7324074074074</v>
+        <v>105.9212962962963</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>27.96342592592595</v>
+        <v>27.66805555555555</v>
       </c>
     </row>
     <row r="33">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>131.7293703703704</v>
+        <v>132.6956898148148</v>
       </c>
       <c r="E33" t="n">
-        <v>104.9064351851852</v>
+        <v>106.0883518518519</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>26.8229351851852</v>
+        <v>26.60733796296294</v>
       </c>
     </row>
     <row r="34">
@@ -1479,10 +1479,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>118.3971805555555</v>
+        <v>119.6044166666667</v>
       </c>
       <c r="E34" t="n">
-        <v>96.13342592592592</v>
+        <v>97.25192592592593</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>22.2637546296296</v>
+        <v>22.35249074074073</v>
       </c>
     </row>
     <row r="35">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>54.54544907407408</v>
+        <v>54.8997314814815</v>
       </c>
       <c r="E35" t="n">
-        <v>40.19326851851852</v>
+        <v>40.78643518518518</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>14.35218055555556</v>
+        <v>14.11329629629631</v>
       </c>
     </row>
     <row r="36">
@@ -1541,10 +1541,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>145.7235185185185</v>
+        <v>144.3176712962963</v>
       </c>
       <c r="E36" t="n">
-        <v>117.0173981481482</v>
+        <v>116.863537037037</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>28.70612037037036</v>
+        <v>27.45413425925926</v>
       </c>
     </row>
     <row r="37">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>13939.15581481481</v>
+        <v>13976.09596759259</v>
       </c>
       <c r="E37" t="n">
-        <v>9157.268592592593</v>
+        <v>9238.73998148148</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4781.887222222222</v>
+        <v>4737.355986111112</v>
       </c>
     </row>
     <row r="38">
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>10.00185185185185</v>
+        <v>10.01111111111111</v>
       </c>
       <c r="E38" t="n">
         <v>11.23148148148148</v>
@@ -1614,7 +1614,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>-1.229629629629631</v>
+        <v>-1.22037037037037</v>
       </c>
     </row>
     <row r="39">
@@ -1634,10 +1634,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>31.78333333333333</v>
+        <v>31.95</v>
       </c>
       <c r="E39" t="n">
-        <v>26.05185185185185</v>
+        <v>26.13703703703704</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5.731481481481485</v>
+        <v>5.812962962962967</v>
       </c>
     </row>
     <row r="40">
@@ -1665,10 +1665,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>21.78148148148148</v>
+        <v>21.93888888888889</v>
       </c>
       <c r="E40" t="n">
-        <v>14.82037037037037</v>
+        <v>14.90555555555555</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>6.961111111111112</v>
+        <v>7.033333333333337</v>
       </c>
     </row>
     <row r="41">
@@ -1696,10 +1696,10 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>232.8597222222222</v>
+        <v>234.2064814814815</v>
       </c>
       <c r="E41" t="n">
-        <v>96.87777777777779</v>
+        <v>99.17129629629629</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>135.9819444444444</v>
+        <v>135.0351851851852</v>
       </c>
     </row>
     <row r="42">
@@ -1727,10 +1727,10 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>232.11825</v>
+        <v>233.2948935185185</v>
       </c>
       <c r="E42" t="n">
-        <v>97.15475925925927</v>
+        <v>99.44838888888889</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>134.9634907407407</v>
+        <v>133.8465046296296</v>
       </c>
     </row>
     <row r="43">
@@ -1758,10 +1758,10 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>208.3816388888889</v>
+        <v>210.2894305555556</v>
       </c>
       <c r="E43" t="n">
-        <v>88.11875000000001</v>
+        <v>90.20940740740741</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>120.2628888888889</v>
+        <v>120.0800231481481</v>
       </c>
     </row>
     <row r="44">
@@ -1789,10 +1789,10 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>89.25588425925926</v>
+        <v>89.77529629629629</v>
       </c>
       <c r="E44" t="n">
-        <v>35.69441666666667</v>
+        <v>36.2442037037037</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>53.56146759259259</v>
+        <v>53.53109259259259</v>
       </c>
     </row>
     <row r="45">
@@ -1820,10 +1820,10 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>117.7934027777778</v>
+        <v>116.7894490740741</v>
       </c>
       <c r="E45" t="n">
-        <v>119.8397685185185</v>
+        <v>117.0621759259259</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>-2.04636574074074</v>
+        <v>-0.2727268518518429</v>
       </c>
     </row>
     <row r="46">
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>21703.35140277777</v>
+        <v>21756.63385648148</v>
       </c>
       <c r="E46" t="n">
-        <v>8859.991944444444</v>
+        <v>8837.139092592592</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>12843.35945833333</v>
+        <v>12919.49476388889</v>
       </c>
     </row>
     <row r="47">
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>10.52962962962963</v>
+        <v>10.46018518518519</v>
       </c>
       <c r="E47" t="n">
-        <v>9.994444444444444</v>
+        <v>10</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.5351851851851883</v>
+        <v>0.4601851851851855</v>
       </c>
     </row>
     <row r="48">
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>30.25370370370371</v>
+        <v>30.29074074074075</v>
       </c>
       <c r="E48" t="n">
-        <v>28.71111111111111</v>
+        <v>28.92592592592592</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.542592592592598</v>
+        <v>1.364814814814824</v>
       </c>
     </row>
     <row r="49">
@@ -1944,10 +1944,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>19.72407407407407</v>
+        <v>19.83055555555556</v>
       </c>
       <c r="E49" t="n">
-        <v>18.71666666666667</v>
+        <v>18.92592592592593</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.007407407407406</v>
+        <v>0.9046296296296248</v>
       </c>
     </row>
     <row r="50">
@@ -1975,10 +1975,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>161.6726851851852</v>
+        <v>162.313888888889</v>
       </c>
       <c r="E50" t="n">
-        <v>148.0712962962963</v>
+        <v>151.0166666666667</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>13.60138888888895</v>
+        <v>11.29722222222227</v>
       </c>
     </row>
     <row r="51">
@@ -2006,10 +2006,10 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>161.5941527777778</v>
+        <v>162.2291296296296</v>
       </c>
       <c r="E51" t="n">
-        <v>148.2752222222222</v>
+        <v>151.2216944444444</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>13.31893055555554</v>
+        <v>11.00743518518519</v>
       </c>
     </row>
     <row r="52">
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>145.8551018518518</v>
+        <v>146.2106574074074</v>
       </c>
       <c r="E52" t="n">
-        <v>136.7262222222222</v>
+        <v>139.4710925925926</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>9.128879629629637</v>
+        <v>6.739564814814827</v>
       </c>
     </row>
     <row r="53">
@@ -2068,10 +2068,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>64.03973611111113</v>
+        <v>64.33179629629632</v>
       </c>
       <c r="E53" t="n">
-        <v>45.42023148148148</v>
+        <v>46.34986111111111</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>18.61950462962965</v>
+        <v>17.98193518518521</v>
       </c>
     </row>
     <row r="54">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>129.3883611111111</v>
+        <v>129.5212314814815</v>
       </c>
       <c r="E54" t="n">
-        <v>62.91313888888888</v>
+        <v>60.95931481481481</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>66.47522222222221</v>
+        <v>68.56191666666666</v>
       </c>
     </row>
     <row r="55">
@@ -2130,10 +2130,10 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>15967.93112037037</v>
+        <v>16045.21368981482</v>
       </c>
       <c r="E55" t="n">
-        <v>9208.361268518518</v>
+        <v>9303.403685185185</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>6759.569851851855</v>
+        <v>6741.810004629631</v>
       </c>
     </row>
   </sheetData>
